--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164604.337522144</v>
+        <v>2172728.538294205</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12469912.36197728</v>
+        <v>12518263.22806171</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1413379.070080632</v>
+        <v>1700444.833429263</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9204108.176981267</v>
+        <v>9098328.008579522</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.27738790031057</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.93890542723724</v>
+        <v>47.40812043802894</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13.93890542723724</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.515713233384494</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="V3" t="n">
-        <v>12.27738790031057</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.93890542723724</v>
+        <v>34.93619783623065</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.27738790031057</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.26115480377223</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>55.26115480377223</v>
+        <v>62.23605351084169</v>
       </c>
       <c r="H5" t="n">
-        <v>48.67402515116257</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>29.63673178547965</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D6" t="n">
-        <v>55.26115480377223</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E6" t="n">
-        <v>55.26115480377223</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F6" t="n">
-        <v>55.26115480377223</v>
+        <v>62.1749079605406</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>36.57392307749219</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>55.26115480377223</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>84.48026621731223</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.43783333287094</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.23619181829162</v>
+        <v>14.26856482072056</v>
       </c>
       <c r="R7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.1126601249237</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1126601249237</v>
+        <v>13.24413706023165</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.63673178547965</v>
+        <v>20.55555711582394</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T8" t="n">
-        <v>69.11209925255308</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>88.66632353716754</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>62.17490796054055</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>51.47395949496051</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749219</v>
+        <v>31.77141835213727</v>
       </c>
       <c r="S9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>46.09668560783667</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>92.43004912451605</v>
       </c>
       <c r="C10" t="n">
-        <v>66.0905066110444</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698833</v>
+        <v>28.07357741546448</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8.838436914954045</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.6140254984835</v>
+        <v>384.4456063019614</v>
       </c>
       <c r="H11" t="n">
-        <v>291.4565301752343</v>
+        <v>294.0836439315798</v>
       </c>
       <c r="I11" t="n">
-        <v>29.71431954844607</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>108.0215569904031</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9705559465044</v>
+        <v>250.9910777676207</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>384.0451543397527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.8348350686409</v>
+        <v>134.9720868474867</v>
       </c>
       <c r="H12" t="n">
-        <v>88.0068566389412</v>
+        <v>89.33241987147878</v>
       </c>
       <c r="I12" t="n">
-        <v>13.14889560362904</v>
+        <v>17.87445027003231</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>125.0855014963689</v>
+        <v>127.634893090282</v>
       </c>
       <c r="T12" t="n">
-        <v>190.0529793750426</v>
+        <v>190.6062003608292</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7763372063321</v>
+        <v>225.7853669286246</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.384459071096255</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8877845624648</v>
+        <v>166.0028518432631</v>
       </c>
       <c r="H13" t="n">
-        <v>143.5278587757846</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>92.20167142591406</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.72610536820686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>187.3636487286056</v>
+        <v>189.3689576130631</v>
       </c>
       <c r="T13" t="n">
-        <v>218.9592116635802</v>
+        <v>219.4508627724457</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>267.9722233512595</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.8705482624376</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.1991755643278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.1760445067976</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.5710127112391</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9705559465044</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>59.57214191681887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.8348350686409</v>
+        <v>134.9720868474867</v>
       </c>
       <c r="H15" t="n">
-        <v>88.0068566389412</v>
+        <v>89.33241987147878</v>
       </c>
       <c r="I15" t="n">
-        <v>13.14889560362904</v>
+        <v>17.87445027003231</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>125.0855014963689</v>
+        <v>127.634893090282</v>
       </c>
       <c r="T15" t="n">
-        <v>190.0529793750426</v>
+        <v>190.6062003608292</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7763372063321</v>
+        <v>225.7853669286246</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>122.9789745665573</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0028518432631</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.72610536820686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.3636487286056</v>
+        <v>189.3689576130631</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9592116635802</v>
+        <v>219.4508627724457</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2043096403457</v>
+        <v>286.2105860374802</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>142.7337272861664</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.6140254984835</v>
+        <v>410.8705482624376</v>
       </c>
       <c r="H17" t="n">
-        <v>291.4565301752343</v>
+        <v>294.0836439315798</v>
       </c>
       <c r="I17" t="n">
-        <v>29.71431954844607</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.1760445067976</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>202.5710127112391</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9705559465044</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>47.21953672411292</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>320.3884234037554</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.8348350686409</v>
+        <v>134.9720868474867</v>
       </c>
       <c r="H18" t="n">
-        <v>88.0068566389412</v>
+        <v>89.33241987147878</v>
       </c>
       <c r="I18" t="n">
-        <v>13.14889560362904</v>
+        <v>17.87445027003231</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>125.0855014963689</v>
+        <v>127.634893090282</v>
       </c>
       <c r="T18" t="n">
-        <v>190.0529793750426</v>
+        <v>190.6062003608292</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7763372063321</v>
+        <v>225.7853669286246</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>32.24147486387833</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8877845624648</v>
+        <v>166.0028518432631</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.5509115087003</v>
       </c>
       <c r="I19" t="n">
-        <v>92.20167142591406</v>
+        <v>95.66205837937542</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>188.2323082591392</v>
       </c>
       <c r="T19" t="n">
-        <v>218.9592116635802</v>
+        <v>219.4508627724457</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2043096403457</v>
+        <v>286.2105860374802</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.6140254984835</v>
+        <v>250.7347097425077</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>39.60391340578894</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.1760445067976</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.5710127112391</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>227.6809308349742</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.8348350686409</v>
+        <v>134.9720868474867</v>
       </c>
       <c r="H21" t="n">
-        <v>88.0068566389412</v>
+        <v>89.33241987147878</v>
       </c>
       <c r="I21" t="n">
-        <v>13.14889560362904</v>
+        <v>17.8744502700323</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>125.0855014963689</v>
+        <v>127.634893090282</v>
       </c>
       <c r="T21" t="n">
-        <v>190.0529793750426</v>
+        <v>190.6062003608292</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7763372063321</v>
+        <v>225.7853669286246</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>42.10629689186755</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8877845624648</v>
+        <v>166.0028518432631</v>
       </c>
       <c r="H22" t="n">
-        <v>143.5278587757846</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>92.20167142591406</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.72610536820686</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.3636487286056</v>
+        <v>30.0286446131836</v>
       </c>
       <c r="T22" t="n">
-        <v>218.9592116635802</v>
+        <v>219.4508627724456</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2105860374802</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672543</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>76.61502530558656</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1032280290729</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352932</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>319.4395745411791</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>96.82965753679564</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2733,7 +2733,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>103.6684815247531</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352932</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2851,7 +2851,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V29" t="n">
-        <v>277.4607323328442</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223798</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.69150848175275</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,13 +3085,13 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
-        <v>200.6173698503566</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>298.9494425801223</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>60.04218327938167</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>62.565095672003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503548</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>95.66252631596291</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>216.882436340405</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3562,7 +3562,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4607323328442</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>123.0408918313864</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
@@ -3681,7 +3681,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>63.74351826213542</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672543</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>148.9055307001832</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.80457674440902</v>
@@ -3957,13 +3957,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
-        <v>114.4461007939389</v>
+        <v>20.01825743298154</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4030,7 +4030,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>148.9055307001832</v>
+        <v>148.9055307001842</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="C2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="D2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="E2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="F2" t="n">
-        <v>29.27451733768856</v>
+        <v>52.30788272574516</v>
       </c>
       <c r="G2" t="n">
-        <v>15.19481488593377</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H2" t="n">
-        <v>15.19481488593377</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I2" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="K2" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="L2" t="n">
-        <v>1.11511243417898</v>
+        <v>20.26319982421454</v>
       </c>
       <c r="M2" t="n">
-        <v>14.35707259005436</v>
+        <v>69.56025678106798</v>
       </c>
       <c r="N2" t="n">
-        <v>28.15658896301923</v>
+        <v>124.2688000368025</v>
       </c>
       <c r="O2" t="n">
-        <v>28.15658896301923</v>
+        <v>162.5932648341013</v>
       </c>
       <c r="P2" t="n">
-        <v>41.95610533598411</v>
+        <v>217.3018080898358</v>
       </c>
       <c r="Q2" t="n">
-        <v>55.75562170894898</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="R2" t="n">
-        <v>41.67591925719419</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="S2" t="n">
-        <v>41.67591925719419</v>
+        <v>115.0727317615872</v>
       </c>
       <c r="T2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="U2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="V2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="W2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="X2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.67591925719419</v>
+        <v>59.25338347494863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.11511243417898</v>
+        <v>5.951915852366923</v>
       </c>
       <c r="C3" t="n">
-        <v>1.11511243417898</v>
+        <v>5.951915852366923</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="E3" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F3" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G3" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H3" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I3" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="K3" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="L3" t="n">
-        <v>14.91462880714385</v>
+        <v>50.74343353945604</v>
       </c>
       <c r="M3" t="n">
-        <v>28.71414518010872</v>
+        <v>105.4519767951905</v>
       </c>
       <c r="N3" t="n">
-        <v>42.5136615530736</v>
+        <v>160.160520050925</v>
       </c>
       <c r="O3" t="n">
-        <v>55.75562170894898</v>
+        <v>214.8690633066595</v>
       </c>
       <c r="P3" t="n">
-        <v>55.75562170894898</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.75562170894898</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="R3" t="n">
-        <v>55.75562170894898</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="S3" t="n">
-        <v>55.75562170894898</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="T3" t="n">
-        <v>55.75562170894898</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="U3" t="n">
-        <v>55.75562170894898</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="V3" t="n">
-        <v>43.35421978944336</v>
+        <v>61.77126413900555</v>
       </c>
       <c r="W3" t="n">
-        <v>43.35421978944336</v>
+        <v>61.77126413900555</v>
       </c>
       <c r="X3" t="n">
-        <v>29.27451733768856</v>
+        <v>61.77126413900555</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.19481488593377</v>
+        <v>61.77126413900555</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="C4" t="n">
-        <v>27.5962168054394</v>
+        <v>159.2543266347634</v>
       </c>
       <c r="D4" t="n">
-        <v>27.5962168054394</v>
+        <v>103.4349783481248</v>
       </c>
       <c r="E4" t="n">
-        <v>27.5962168054394</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="F4" t="n">
-        <v>27.5962168054394</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="G4" t="n">
-        <v>27.5962168054394</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="H4" t="n">
-        <v>27.5962168054394</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="I4" t="n">
-        <v>13.5165143536846</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11511243417898</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="K4" t="n">
-        <v>1.11511243417898</v>
+        <v>59.12943564003628</v>
       </c>
       <c r="L4" t="n">
-        <v>14.91462880714385</v>
+        <v>113.8379788957708</v>
       </c>
       <c r="M4" t="n">
-        <v>28.71414518010872</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="N4" t="n">
-        <v>42.5136615530736</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="O4" t="n">
-        <v>55.75562170894898</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="P4" t="n">
-        <v>55.75562170894898</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.75562170894898</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="R4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="S4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="T4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="U4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="V4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="W4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="X4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.67591925719419</v>
+        <v>194.5434153582287</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221.0446192150889</v>
+        <v>78.77921407519908</v>
       </c>
       <c r="C5" t="n">
-        <v>221.0446192150889</v>
+        <v>78.77921407519908</v>
       </c>
       <c r="D5" t="n">
-        <v>165.2252709284503</v>
+        <v>78.77921407519908</v>
       </c>
       <c r="E5" t="n">
-        <v>165.2252709284503</v>
+        <v>78.77921407519908</v>
       </c>
       <c r="F5" t="n">
-        <v>109.4059226418117</v>
+        <v>71.8337133259956</v>
       </c>
       <c r="G5" t="n">
-        <v>53.58657435517306</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H5" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I5" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J5" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K5" t="n">
-        <v>59.12943564003628</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L5" t="n">
-        <v>74.97174307994904</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M5" t="n">
-        <v>124.2688000368025</v>
+        <v>202.4209174083931</v>
       </c>
       <c r="N5" t="n">
-        <v>178.977343292537</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O5" t="n">
-        <v>221.0446192150889</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P5" t="n">
-        <v>221.0446192150889</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q5" t="n">
-        <v>221.0446192150889</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R5" t="n">
-        <v>221.0446192150889</v>
+        <v>418.5145477870891</v>
       </c>
       <c r="S5" t="n">
-        <v>221.0446192150889</v>
+        <v>305.2694365497924</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0446192150889</v>
+        <v>305.2694365497924</v>
       </c>
       <c r="U5" t="n">
-        <v>221.0446192150889</v>
+        <v>305.2694365497924</v>
       </c>
       <c r="V5" t="n">
-        <v>221.0446192150889</v>
+        <v>192.0243253124958</v>
       </c>
       <c r="W5" t="n">
-        <v>221.0446192150889</v>
+        <v>78.77921407519908</v>
       </c>
       <c r="X5" t="n">
-        <v>221.0446192150889</v>
+        <v>78.77921407519908</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.0446192150889</v>
+        <v>78.77921407519908</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171.8789372442176</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="C6" t="n">
-        <v>171.8789372442176</v>
+        <v>298.2621726184666</v>
       </c>
       <c r="D6" t="n">
-        <v>116.059588957579</v>
+        <v>185.01706138117</v>
       </c>
       <c r="E6" t="n">
-        <v>60.2402406709404</v>
+        <v>71.7719501438733</v>
       </c>
       <c r="F6" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G6" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H6" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I6" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J6" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>4.420892384301778</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>50.74343353945604</v>
+        <v>65.44790611672073</v>
       </c>
       <c r="M6" t="n">
-        <v>105.4519767951905</v>
+        <v>176.4394396403952</v>
       </c>
       <c r="N6" t="n">
-        <v>137.5961796025268</v>
+        <v>287.4309731640697</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3047228582613</v>
+        <v>387.4830745953196</v>
       </c>
       <c r="P6" t="n">
-        <v>221.0446192150889</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>221.0446192150889</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R6" t="n">
-        <v>221.0446192150889</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="S6" t="n">
-        <v>221.0446192150889</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="T6" t="n">
-        <v>221.0446192150889</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="U6" t="n">
-        <v>221.0446192150889</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="V6" t="n">
-        <v>221.0446192150889</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="W6" t="n">
-        <v>221.0446192150889</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="X6" t="n">
-        <v>221.0446192150889</v>
+        <v>411.5072838557633</v>
       </c>
       <c r="Y6" t="n">
-        <v>221.0446192150889</v>
+        <v>411.5072838557633</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="C7" t="n">
-        <v>82.90471878495146</v>
+        <v>320.7928375242966</v>
       </c>
       <c r="D7" t="n">
-        <v>82.90471878495146</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="E7" t="n">
-        <v>82.90471878495146</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="F7" t="n">
-        <v>82.90471878495146</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G7" t="n">
-        <v>82.90471878495146</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="H7" t="n">
-        <v>27.08537049831283</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="I7" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J7" t="n">
-        <v>4.420892384301778</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K7" t="n">
-        <v>59.12943564003628</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L7" t="n">
-        <v>59.12943564003628</v>
+        <v>115.4760399286715</v>
       </c>
       <c r="M7" t="n">
-        <v>113.8379788957708</v>
+        <v>226.4675734523459</v>
       </c>
       <c r="N7" t="n">
-        <v>166.3360759593544</v>
+        <v>337.4591069760204</v>
       </c>
       <c r="O7" t="n">
-        <v>166.3360759593544</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="P7" t="n">
-        <v>221.0446192150889</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q7" t="n">
-        <v>194.5434153582287</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="R7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="S7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="T7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="U7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="V7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="W7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="X7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.7240670715901</v>
+        <v>434.0379487615933</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.4592352845871</v>
+        <v>32.07110665875638</v>
       </c>
       <c r="C8" t="n">
-        <v>235.4592352845871</v>
+        <v>32.07110665875638</v>
       </c>
       <c r="D8" t="n">
-        <v>235.4592352845871</v>
+        <v>32.07110665875638</v>
       </c>
       <c r="E8" t="n">
-        <v>235.4592352845871</v>
+        <v>32.07110665875638</v>
       </c>
       <c r="F8" t="n">
-        <v>122.2141240472905</v>
+        <v>25.1256059095529</v>
       </c>
       <c r="G8" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320674</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416797</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R8" t="n">
-        <v>418.5145477870889</v>
+        <v>566.6212953489518</v>
       </c>
       <c r="S8" t="n">
-        <v>305.2694365497923</v>
+        <v>418.291880107832</v>
       </c>
       <c r="T8" t="n">
-        <v>235.4592352845871</v>
+        <v>418.291880107832</v>
       </c>
       <c r="U8" t="n">
-        <v>235.4592352845871</v>
+        <v>269.9624648667121</v>
       </c>
       <c r="V8" t="n">
-        <v>235.4592352845871</v>
+        <v>121.6330496255923</v>
       </c>
       <c r="W8" t="n">
-        <v>235.4592352845871</v>
+        <v>32.07110665875638</v>
       </c>
       <c r="X8" t="n">
-        <v>235.4592352845871</v>
+        <v>32.07110665875638</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.4592352845871</v>
+        <v>32.07110665875638</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>298.2621726184665</v>
+        <v>63.74158816685478</v>
       </c>
       <c r="C9" t="n">
-        <v>185.0170613811699</v>
+        <v>63.74158816685478</v>
       </c>
       <c r="D9" t="n">
-        <v>71.77195014387324</v>
+        <v>63.74158816685478</v>
       </c>
       <c r="E9" t="n">
-        <v>71.77195014387324</v>
+        <v>63.74158816685478</v>
       </c>
       <c r="F9" t="n">
-        <v>8.969012809993892</v>
+        <v>63.74158816685478</v>
       </c>
       <c r="G9" t="n">
-        <v>8.969012809993892</v>
+        <v>63.74158816685478</v>
       </c>
       <c r="H9" t="n">
-        <v>8.969012809993892</v>
+        <v>63.74158816685478</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387162</v>
+        <v>112.5663946836087</v>
       </c>
       <c r="M9" t="n">
-        <v>202.927645827546</v>
+        <v>248.144772617289</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>393.5224324951106</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>511.7941057756093</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R9" t="n">
-        <v>411.5072838557631</v>
+        <v>555.2921425849988</v>
       </c>
       <c r="S9" t="n">
-        <v>298.2621726184665</v>
+        <v>555.2921425849988</v>
       </c>
       <c r="T9" t="n">
-        <v>298.2621726184665</v>
+        <v>555.2921425849988</v>
       </c>
       <c r="U9" t="n">
-        <v>298.2621726184665</v>
+        <v>555.2921425849988</v>
       </c>
       <c r="V9" t="n">
-        <v>298.2621726184665</v>
+        <v>406.962727343879</v>
       </c>
       <c r="W9" t="n">
-        <v>298.2621726184665</v>
+        <v>360.4004186490945</v>
       </c>
       <c r="X9" t="n">
-        <v>298.2621726184665</v>
+        <v>212.0710034079746</v>
       </c>
       <c r="Y9" t="n">
-        <v>298.2621726184665</v>
+        <v>63.74158816685478</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>448.4506404996946</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="C10" t="n">
-        <v>381.6925530137912</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="D10" t="n">
-        <v>268.4474417764945</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="E10" t="n">
-        <v>155.2023305391979</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="F10" t="n">
-        <v>155.2023305391979</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="G10" t="n">
-        <v>41.9572193019013</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="H10" t="n">
-        <v>41.9572193019013</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="I10" t="n">
-        <v>41.9572193019013</v>
+        <v>40.10483859160627</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993892</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L10" t="n">
-        <v>115.4760399286714</v>
+        <v>157.1253495649182</v>
       </c>
       <c r="M10" t="n">
-        <v>226.4675734523458</v>
+        <v>302.5030094427398</v>
       </c>
       <c r="N10" t="n">
-        <v>337.4591069760202</v>
+        <v>442.006824477013</v>
       </c>
       <c r="O10" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="P10" t="n">
-        <v>448.4506404996946</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q10" t="n">
-        <v>448.4506404996946</v>
+        <v>578.4567702993254</v>
       </c>
       <c r="R10" t="n">
-        <v>448.4506404996946</v>
+        <v>578.4567702993254</v>
       </c>
       <c r="S10" t="n">
-        <v>448.4506404996946</v>
+        <v>578.4567702993254</v>
       </c>
       <c r="T10" t="n">
-        <v>448.4506404996946</v>
+        <v>578.4567702993254</v>
       </c>
       <c r="U10" t="n">
-        <v>448.4506404996946</v>
+        <v>578.4567702993254</v>
       </c>
       <c r="V10" t="n">
-        <v>448.4506404996946</v>
+        <v>430.1273550582056</v>
       </c>
       <c r="W10" t="n">
-        <v>448.4506404996946</v>
+        <v>430.1273550582056</v>
       </c>
       <c r="X10" t="n">
-        <v>448.4506404996946</v>
+        <v>281.7979398170858</v>
       </c>
       <c r="Y10" t="n">
-        <v>448.4506404996946</v>
+        <v>133.4685245759659</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1968.232313830949</v>
+        <v>1522.39483331829</v>
       </c>
       <c r="C11" t="n">
-        <v>1968.232313830949</v>
+        <v>1522.39483331829</v>
       </c>
       <c r="D11" t="n">
-        <v>1609.966615224199</v>
+        <v>1164.129134711539</v>
       </c>
       <c r="E11" t="n">
-        <v>1224.178362625955</v>
+        <v>1164.129134711539</v>
       </c>
       <c r="F11" t="n">
-        <v>813.1924578363471</v>
+        <v>753.1432299219316</v>
       </c>
       <c r="G11" t="n">
-        <v>398.4308159186869</v>
+        <v>364.814334667425</v>
       </c>
       <c r="H11" t="n">
-        <v>104.0302803881472</v>
+        <v>67.76014887795044</v>
       </c>
       <c r="I11" t="n">
-        <v>74.01581619779762</v>
+        <v>67.76014887795044</v>
       </c>
       <c r="J11" t="n">
-        <v>288.7494565244278</v>
+        <v>260.9394607567966</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3180376661585</v>
+        <v>601.2036909385459</v>
       </c>
       <c r="L11" t="n">
-        <v>1160.424069197938</v>
+        <v>1060.233318558355</v>
       </c>
       <c r="M11" t="n">
-        <v>1747.44513415787</v>
+        <v>1602.661662269881</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.578622039315</v>
+        <v>2158.480872052868</v>
       </c>
       <c r="O11" t="n">
-        <v>2902.876667259491</v>
+        <v>2669.989929426314</v>
       </c>
       <c r="P11" t="n">
-        <v>3341.456223857446</v>
+        <v>3072.050074855307</v>
       </c>
       <c r="Q11" t="n">
-        <v>3622.638459172042</v>
+        <v>3325.807753270207</v>
       </c>
       <c r="R11" t="n">
-        <v>3700.790809889881</v>
+        <v>3388.007443897522</v>
       </c>
       <c r="S11" t="n">
-        <v>3700.790809889881</v>
+        <v>3278.894760068832</v>
       </c>
       <c r="T11" t="n">
-        <v>3700.790809889881</v>
+        <v>3278.894760068832</v>
       </c>
       <c r="U11" t="n">
-        <v>3447.285197822705</v>
+        <v>3025.368418889417</v>
       </c>
       <c r="V11" t="n">
-        <v>3116.222310479134</v>
+        <v>3025.368418889417</v>
       </c>
       <c r="W11" t="n">
-        <v>3116.222310479134</v>
+        <v>2672.599763619303</v>
       </c>
       <c r="X11" t="n">
-        <v>2742.756552218054</v>
+        <v>2299.134005358223</v>
       </c>
       <c r="Y11" t="n">
-        <v>2354.832153895071</v>
+        <v>1908.994673382411</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5495987361313</v>
+        <v>941.544809878695</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0965694550043</v>
+        <v>767.091780597568</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1621597937531</v>
+        <v>618.1573709363167</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9247047882976</v>
+        <v>458.9199159308613</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3901468151826</v>
+        <v>312.3853579577462</v>
       </c>
       <c r="G12" t="n">
-        <v>176.1933437155453</v>
+        <v>176.0499166976586</v>
       </c>
       <c r="H12" t="n">
-        <v>87.29752892873604</v>
+        <v>85.81514915071035</v>
       </c>
       <c r="I12" t="n">
-        <v>74.01581619779762</v>
+        <v>67.76014887795044</v>
       </c>
       <c r="J12" t="n">
-        <v>183.0918543466389</v>
+        <v>163.9985766652245</v>
       </c>
       <c r="K12" t="n">
-        <v>447.6750016436766</v>
+        <v>406.6402031098496</v>
       </c>
       <c r="L12" t="n">
-        <v>849.7622359280879</v>
+        <v>779.2243548563386</v>
       </c>
       <c r="M12" t="n">
-        <v>1338.335941280648</v>
+        <v>1233.369354457646</v>
       </c>
       <c r="N12" t="n">
-        <v>1854.249383733205</v>
+        <v>1713.942865763526</v>
       </c>
       <c r="O12" t="n">
-        <v>2303.989596506382</v>
+        <v>2131.353945753455</v>
       </c>
       <c r="P12" t="n">
-        <v>2561.144803805563</v>
+        <v>2447.030070812949</v>
       </c>
       <c r="Q12" t="n">
-        <v>2561.144803805563</v>
+        <v>2564.283087980442</v>
       </c>
       <c r="R12" t="n">
-        <v>2561.144803805563</v>
+        <v>2564.283087980442</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.795812395089</v>
+        <v>2435.358953545814</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.823105955652</v>
+        <v>2242.827438029825</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.76619968663</v>
+        <v>2014.761410829194</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.614091454888</v>
+        <v>1779.609302597451</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.376734726686</v>
+        <v>1525.37194586925</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.525234521153</v>
+        <v>1317.520445663717</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.764935756199</v>
+        <v>1109.760146898763</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.1815414019391</v>
+        <v>382.3297447023892</v>
       </c>
       <c r="C13" t="n">
-        <v>635.2453584740322</v>
+        <v>382.3297447023892</v>
       </c>
       <c r="D13" t="n">
-        <v>485.1287190616964</v>
+        <v>382.3297447023892</v>
       </c>
       <c r="E13" t="n">
-        <v>485.1287190616964</v>
+        <v>382.3297447023892</v>
       </c>
       <c r="F13" t="n">
-        <v>479.6898715151345</v>
+        <v>235.4397972044789</v>
       </c>
       <c r="G13" t="n">
-        <v>312.12645276517</v>
+        <v>67.76014887795044</v>
       </c>
       <c r="H13" t="n">
-        <v>167.1488176381148</v>
+        <v>67.76014887795044</v>
       </c>
       <c r="I13" t="n">
-        <v>74.01581619779762</v>
+        <v>67.76014887795044</v>
       </c>
       <c r="J13" t="n">
-        <v>128.7991412382935</v>
+        <v>114.4895697335315</v>
       </c>
       <c r="K13" t="n">
-        <v>348.6618097658892</v>
+        <v>321.1171996237077</v>
       </c>
       <c r="L13" t="n">
-        <v>685.5367640167623</v>
+        <v>641.0558610830033</v>
       </c>
       <c r="M13" t="n">
-        <v>1051.113293014892</v>
+        <v>988.7754439758882</v>
       </c>
       <c r="N13" t="n">
-        <v>1413.431845679018</v>
+        <v>1333.661648800916</v>
       </c>
       <c r="O13" t="n">
-        <v>1732.075376506938</v>
+        <v>1636.203584892169</v>
       </c>
       <c r="P13" t="n">
-        <v>1981.209282272309</v>
+        <v>1871.559794723876</v>
       </c>
       <c r="Q13" t="n">
-        <v>2070.261604846231</v>
+        <v>1951.0731547869</v>
       </c>
       <c r="R13" t="n">
-        <v>1986.699882252083</v>
+        <v>1951.0731547869</v>
       </c>
       <c r="S13" t="n">
-        <v>1797.443671415107</v>
+        <v>1759.79137942017</v>
       </c>
       <c r="T13" t="n">
-        <v>1576.272750542804</v>
+        <v>1538.123841266184</v>
       </c>
       <c r="U13" t="n">
-        <v>1576.272750542804</v>
+        <v>1538.123841266184</v>
       </c>
       <c r="V13" t="n">
-        <v>1321.588262336917</v>
+        <v>1283.439353060297</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.171092299956</v>
+        <v>1012.760339574176</v>
       </c>
       <c r="X13" t="n">
-        <v>804.1815414019391</v>
+        <v>784.7707886761591</v>
       </c>
       <c r="Y13" t="n">
-        <v>804.1815414019391</v>
+        <v>563.978209532629</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.018189132812</v>
+        <v>2258.499616587475</v>
       </c>
       <c r="C14" t="n">
-        <v>1229.0556721924</v>
+        <v>1889.537099647063</v>
       </c>
       <c r="D14" t="n">
-        <v>870.7899735856495</v>
+        <v>1531.271401040313</v>
       </c>
       <c r="E14" t="n">
-        <v>485.0017209874052</v>
+        <v>1145.483148442069</v>
       </c>
       <c r="F14" t="n">
-        <v>74.01581619779761</v>
+        <v>734.4972436524611</v>
       </c>
       <c r="G14" t="n">
-        <v>74.01581619779761</v>
+        <v>319.4764878318169</v>
       </c>
       <c r="H14" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="I14" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J14" t="n">
-        <v>288.7494565244274</v>
+        <v>260.939460756797</v>
       </c>
       <c r="K14" t="n">
-        <v>661.318037666158</v>
+        <v>601.2036909385456</v>
       </c>
       <c r="L14" t="n">
-        <v>1160.424069197937</v>
+        <v>1060.233318558354</v>
       </c>
       <c r="M14" t="n">
-        <v>1747.445134157869</v>
+        <v>1602.661662269881</v>
       </c>
       <c r="N14" t="n">
-        <v>2348.578622039314</v>
+        <v>2158.480872052867</v>
       </c>
       <c r="O14" t="n">
-        <v>2902.876667259491</v>
+        <v>2669.989929426315</v>
       </c>
       <c r="P14" t="n">
-        <v>3341.456223857445</v>
+        <v>3072.050074855307</v>
       </c>
       <c r="Q14" t="n">
-        <v>3622.638459172042</v>
+        <v>3325.807753270208</v>
       </c>
       <c r="R14" t="n">
-        <v>3700.79080988988</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="S14" t="n">
-        <v>3597.582684125438</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="T14" t="n">
-        <v>3392.965499568631</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="U14" t="n">
-        <v>3139.459887501455</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="V14" t="n">
-        <v>2808.397000157884</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="W14" t="n">
-        <v>2748.223119433825</v>
+        <v>3035.238788627409</v>
       </c>
       <c r="X14" t="n">
-        <v>2374.757361172745</v>
+        <v>3035.238788627409</v>
       </c>
       <c r="Y14" t="n">
-        <v>1984.618029196933</v>
+        <v>2645.099456651597</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5495987361313</v>
+        <v>941.544809878695</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0965694550043</v>
+        <v>767.091780597568</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1621597937531</v>
+        <v>618.1573709363167</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9247047882976</v>
+        <v>458.9199159308613</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3901468151826</v>
+        <v>312.3853579577462</v>
       </c>
       <c r="G15" t="n">
-        <v>176.1933437155453</v>
+        <v>176.0499166976586</v>
       </c>
       <c r="H15" t="n">
-        <v>87.29752892873603</v>
+        <v>85.81514915071037</v>
       </c>
       <c r="I15" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J15" t="n">
-        <v>183.0918543466389</v>
+        <v>163.9985766652245</v>
       </c>
       <c r="K15" t="n">
-        <v>447.6750016436766</v>
+        <v>406.6402031098496</v>
       </c>
       <c r="L15" t="n">
-        <v>849.7622359280879</v>
+        <v>779.2243548563386</v>
       </c>
       <c r="M15" t="n">
-        <v>1338.335941280648</v>
+        <v>1233.369354457646</v>
       </c>
       <c r="N15" t="n">
-        <v>1854.249383733205</v>
+        <v>1713.942865763526</v>
       </c>
       <c r="O15" t="n">
-        <v>2303.989596506382</v>
+        <v>2131.353945753455</v>
       </c>
       <c r="P15" t="n">
-        <v>2561.144803805563</v>
+        <v>2447.030070812949</v>
       </c>
       <c r="Q15" t="n">
-        <v>2561.144803805563</v>
+        <v>2564.283087980442</v>
       </c>
       <c r="R15" t="n">
-        <v>2561.144803805563</v>
+        <v>2564.283087980442</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.795812395089</v>
+        <v>2435.358953545814</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.823105955652</v>
+        <v>2242.827438029825</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.76619968663</v>
+        <v>2014.761410829194</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.614091454888</v>
+        <v>1779.609302597451</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.376734726686</v>
+        <v>1525.37194586925</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.525234521153</v>
+        <v>1317.520445663717</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.764935756199</v>
+        <v>1109.760146898763</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>515.0862791389636</v>
+        <v>702.4057131271146</v>
       </c>
       <c r="C16" t="n">
-        <v>346.1500962110567</v>
+        <v>533.4695301992077</v>
       </c>
       <c r="D16" t="n">
-        <v>221.9289097801907</v>
+        <v>383.352890786872</v>
       </c>
       <c r="E16" t="n">
-        <v>74.01581619779761</v>
+        <v>235.4397972044789</v>
       </c>
       <c r="F16" t="n">
-        <v>74.01581619779761</v>
+        <v>235.4397972044789</v>
       </c>
       <c r="G16" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="H16" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="I16" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J16" t="n">
-        <v>128.7991412382935</v>
+        <v>114.4895697335315</v>
       </c>
       <c r="K16" t="n">
-        <v>348.6618097658892</v>
+        <v>321.1171996237077</v>
       </c>
       <c r="L16" t="n">
-        <v>685.5367640167623</v>
+        <v>641.0558610830034</v>
       </c>
       <c r="M16" t="n">
-        <v>1051.113293014892</v>
+        <v>988.7754439758883</v>
       </c>
       <c r="N16" t="n">
-        <v>1413.431845679018</v>
+        <v>1333.661648800916</v>
       </c>
       <c r="O16" t="n">
-        <v>1732.075376506938</v>
+        <v>1636.203584892169</v>
       </c>
       <c r="P16" t="n">
-        <v>1981.209282272309</v>
+        <v>1871.559794723876</v>
       </c>
       <c r="Q16" t="n">
-        <v>2070.261604846231</v>
+        <v>1951.0731547869</v>
       </c>
       <c r="R16" t="n">
-        <v>1986.699882252083</v>
+        <v>1951.0731547869</v>
       </c>
       <c r="S16" t="n">
-        <v>1797.443671415107</v>
+        <v>1759.79137942017</v>
       </c>
       <c r="T16" t="n">
-        <v>1576.272750542804</v>
+        <v>1538.123841266184</v>
       </c>
       <c r="U16" t="n">
-        <v>1287.177488279829</v>
+        <v>1249.022239208123</v>
       </c>
       <c r="V16" t="n">
-        <v>1032.493000073942</v>
+        <v>1104.846757100884</v>
       </c>
       <c r="W16" t="n">
-        <v>743.075830036981</v>
+        <v>1104.846757100884</v>
       </c>
       <c r="X16" t="n">
-        <v>515.0862791389636</v>
+        <v>1104.846757100884</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.0862791389636</v>
+        <v>884.0541779573543</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1978.929132164611</v>
+        <v>1934.874946482671</v>
       </c>
       <c r="C17" t="n">
-        <v>1609.966615224199</v>
+        <v>1934.874946482671</v>
       </c>
       <c r="D17" t="n">
-        <v>1609.966615224199</v>
+        <v>1576.609247875921</v>
       </c>
       <c r="E17" t="n">
-        <v>1224.178362625955</v>
+        <v>1190.820995277677</v>
       </c>
       <c r="F17" t="n">
-        <v>813.192457836347</v>
+        <v>779.8350904880692</v>
       </c>
       <c r="G17" t="n">
-        <v>398.4308159186868</v>
+        <v>364.8143346674251</v>
       </c>
       <c r="H17" t="n">
-        <v>104.0302803881472</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="I17" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J17" t="n">
-        <v>288.7494565244269</v>
+        <v>260.9394607567965</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3180376661576</v>
+        <v>601.2036909385461</v>
       </c>
       <c r="L17" t="n">
-        <v>1160.424069197937</v>
+        <v>1060.233318558355</v>
       </c>
       <c r="M17" t="n">
-        <v>1747.445134157869</v>
+        <v>1602.661662269882</v>
       </c>
       <c r="N17" t="n">
-        <v>2348.578622039314</v>
+        <v>2158.480872052868</v>
       </c>
       <c r="O17" t="n">
-        <v>2902.87666725949</v>
+        <v>2669.989929426315</v>
       </c>
       <c r="P17" t="n">
-        <v>3341.456223857445</v>
+        <v>3072.050074855307</v>
       </c>
       <c r="Q17" t="n">
-        <v>3622.638459172042</v>
+        <v>3325.807753270208</v>
       </c>
       <c r="R17" t="n">
-        <v>3700.79080988988</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="S17" t="n">
-        <v>3597.582684125438</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="T17" t="n">
-        <v>3392.965499568631</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="U17" t="n">
-        <v>3139.459887501455</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="V17" t="n">
-        <v>3091.763385759927</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="W17" t="n">
-        <v>2738.994730489812</v>
+        <v>3035.238788627409</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.528972228733</v>
+        <v>2711.614118522605</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.528972228733</v>
+        <v>2321.474786546793</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5495987361313</v>
+        <v>941.544809878695</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0965694550043</v>
+        <v>767.091780597568</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1621597937531</v>
+        <v>618.1573709363167</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9247047882976</v>
+        <v>458.9199159308613</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3901468151826</v>
+        <v>312.3853579577462</v>
       </c>
       <c r="G18" t="n">
-        <v>176.1933437155453</v>
+        <v>176.0499166976586</v>
       </c>
       <c r="H18" t="n">
-        <v>87.29752892873603</v>
+        <v>85.81514915071037</v>
       </c>
       <c r="I18" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J18" t="n">
-        <v>183.0918543466389</v>
+        <v>163.9985766652245</v>
       </c>
       <c r="K18" t="n">
-        <v>447.6750016436766</v>
+        <v>406.6402031098496</v>
       </c>
       <c r="L18" t="n">
-        <v>849.7622359280879</v>
+        <v>779.2243548563386</v>
       </c>
       <c r="M18" t="n">
-        <v>1338.335941280648</v>
+        <v>1233.369354457646</v>
       </c>
       <c r="N18" t="n">
-        <v>1854.249383733205</v>
+        <v>1713.942865763526</v>
       </c>
       <c r="O18" t="n">
-        <v>2303.989596506382</v>
+        <v>2131.353945753455</v>
       </c>
       <c r="P18" t="n">
-        <v>2561.144803805563</v>
+        <v>2447.030070812949</v>
       </c>
       <c r="Q18" t="n">
-        <v>2561.144803805563</v>
+        <v>2562.741464124531</v>
       </c>
       <c r="R18" t="n">
-        <v>2561.144803805563</v>
+        <v>2564.283087980442</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.795812395089</v>
+        <v>2435.358953545814</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.823105955652</v>
+        <v>2242.827438029825</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.76619968663</v>
+        <v>2014.761410829194</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.614091454888</v>
+        <v>1779.609302597451</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.376734726686</v>
+        <v>1525.37194586925</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.525234521153</v>
+        <v>1317.520445663717</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.764935756199</v>
+        <v>1109.760146898763</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>834.2452986378649</v>
+        <v>478.0791607277877</v>
       </c>
       <c r="C19" t="n">
-        <v>665.3091157099581</v>
+        <v>478.0791607277877</v>
       </c>
       <c r="D19" t="n">
-        <v>515.1924762976223</v>
+        <v>478.0791607277877</v>
       </c>
       <c r="E19" t="n">
-        <v>367.2793827152292</v>
+        <v>478.0791607277877</v>
       </c>
       <c r="F19" t="n">
-        <v>334.7122363880794</v>
+        <v>478.0791607277877</v>
       </c>
       <c r="G19" t="n">
-        <v>167.1488176381148</v>
+        <v>310.3995124012593</v>
       </c>
       <c r="H19" t="n">
-        <v>167.1488176381148</v>
+        <v>164.3884906752994</v>
       </c>
       <c r="I19" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J19" t="n">
-        <v>128.7991412382935</v>
+        <v>114.4895697335315</v>
       </c>
       <c r="K19" t="n">
-        <v>348.6618097658892</v>
+        <v>321.1171996237077</v>
       </c>
       <c r="L19" t="n">
-        <v>685.5367640167623</v>
+        <v>641.0558610830034</v>
       </c>
       <c r="M19" t="n">
-        <v>1051.113293014892</v>
+        <v>988.7754439758883</v>
       </c>
       <c r="N19" t="n">
-        <v>1413.431845679018</v>
+        <v>1333.661648800916</v>
       </c>
       <c r="O19" t="n">
-        <v>1732.075376506938</v>
+        <v>1636.203584892169</v>
       </c>
       <c r="P19" t="n">
-        <v>1981.209282272309</v>
+        <v>1871.559794723876</v>
       </c>
       <c r="Q19" t="n">
-        <v>2070.261604846231</v>
+        <v>1951.0731547869</v>
       </c>
       <c r="R19" t="n">
-        <v>2070.261604846231</v>
+        <v>1951.0731547869</v>
       </c>
       <c r="S19" t="n">
-        <v>2070.261604846231</v>
+        <v>1760.939510080699</v>
       </c>
       <c r="T19" t="n">
-        <v>1849.090683973928</v>
+        <v>1539.271971926713</v>
       </c>
       <c r="U19" t="n">
-        <v>1559.995421710952</v>
+        <v>1250.170369868653</v>
       </c>
       <c r="V19" t="n">
-        <v>1305.310933505065</v>
+        <v>995.4858816627657</v>
       </c>
       <c r="W19" t="n">
-        <v>1015.893763468105</v>
+        <v>706.068711625805</v>
       </c>
       <c r="X19" t="n">
-        <v>1015.893763468105</v>
+        <v>478.0791607277877</v>
       </c>
       <c r="Y19" t="n">
-        <v>1015.893763468105</v>
+        <v>478.0791607277877</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2012.779831050472</v>
+        <v>1885.033858326395</v>
       </c>
       <c r="C20" t="n">
-        <v>1643.81731411006</v>
+        <v>1516.071341385984</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.55161550331</v>
+        <v>1157.805642779233</v>
       </c>
       <c r="E20" t="n">
-        <v>899.7633629050654</v>
+        <v>772.017390180989</v>
       </c>
       <c r="F20" t="n">
-        <v>488.7774581154578</v>
+        <v>361.0314853913814</v>
       </c>
       <c r="G20" t="n">
-        <v>74.01581619779761</v>
+        <v>107.7641018130908</v>
       </c>
       <c r="H20" t="n">
-        <v>74.01581619779761</v>
+        <v>107.7641018130908</v>
       </c>
       <c r="I20" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J20" t="n">
-        <v>288.7494565244269</v>
+        <v>260.9394607567967</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3180376661576</v>
+        <v>601.2036909385462</v>
       </c>
       <c r="L20" t="n">
-        <v>1160.424069197937</v>
+        <v>1060.233318558355</v>
       </c>
       <c r="M20" t="n">
-        <v>1747.445134157869</v>
+        <v>1602.661662269882</v>
       </c>
       <c r="N20" t="n">
-        <v>2348.578622039314</v>
+        <v>2158.480872052868</v>
       </c>
       <c r="O20" t="n">
-        <v>2902.87666725949</v>
+        <v>2669.989929426315</v>
       </c>
       <c r="P20" t="n">
-        <v>3341.456223857445</v>
+        <v>3072.050074855307</v>
       </c>
       <c r="Q20" t="n">
-        <v>3622.638459172042</v>
+        <v>3325.807753270208</v>
       </c>
       <c r="R20" t="n">
-        <v>3700.79080988988</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="S20" t="n">
-        <v>3597.582684125438</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="T20" t="n">
-        <v>3392.965499568631</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="U20" t="n">
-        <v>3392.965499568631</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="V20" t="n">
-        <v>3392.965499568631</v>
+        <v>3388.007443897523</v>
       </c>
       <c r="W20" t="n">
-        <v>3162.984761351485</v>
+        <v>3035.238788627409</v>
       </c>
       <c r="X20" t="n">
-        <v>2789.519003090405</v>
+        <v>2661.773030366329</v>
       </c>
       <c r="Y20" t="n">
-        <v>2399.379671114594</v>
+        <v>2271.633698390517</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5495987361313</v>
+        <v>941.544809878695</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0965694550043</v>
+        <v>767.091780597568</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1621597937531</v>
+        <v>618.1573709363167</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9247047882976</v>
+        <v>458.9199159308613</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3901468151826</v>
+        <v>312.3853579577462</v>
       </c>
       <c r="G21" t="n">
-        <v>176.1933437155453</v>
+        <v>176.0499166976586</v>
       </c>
       <c r="H21" t="n">
-        <v>87.29752892873603</v>
+        <v>85.81514915071035</v>
       </c>
       <c r="I21" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J21" t="n">
-        <v>183.0918543466389</v>
+        <v>163.9985766652246</v>
       </c>
       <c r="K21" t="n">
-        <v>447.6750016436766</v>
+        <v>406.6402031098497</v>
       </c>
       <c r="L21" t="n">
-        <v>849.7622359280879</v>
+        <v>779.2243548563386</v>
       </c>
       <c r="M21" t="n">
-        <v>1338.335941280648</v>
+        <v>1233.369354457646</v>
       </c>
       <c r="N21" t="n">
-        <v>1854.249383733205</v>
+        <v>1713.942865763526</v>
       </c>
       <c r="O21" t="n">
-        <v>2303.989596506382</v>
+        <v>2131.353945753455</v>
       </c>
       <c r="P21" t="n">
-        <v>2561.144803805563</v>
+        <v>2447.030070812949</v>
       </c>
       <c r="Q21" t="n">
-        <v>2561.144803805563</v>
+        <v>2564.283087980442</v>
       </c>
       <c r="R21" t="n">
-        <v>2561.144803805563</v>
+        <v>2564.283087980442</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.795812395089</v>
+        <v>2435.358953545814</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.823105955652</v>
+        <v>2242.827438029825</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.76619968663</v>
+        <v>2014.761410829194</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.614091454888</v>
+        <v>1779.609302597451</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.376734726686</v>
+        <v>1525.37194586925</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.525234521153</v>
+        <v>1317.520445663717</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.764935756199</v>
+        <v>1109.760146898763</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>691.1576674651299</v>
+        <v>235.4397972044789</v>
       </c>
       <c r="C22" t="n">
-        <v>522.221484537223</v>
+        <v>235.4397972044789</v>
       </c>
       <c r="D22" t="n">
-        <v>522.221484537223</v>
+        <v>235.4397972044789</v>
       </c>
       <c r="E22" t="n">
-        <v>479.6898715151345</v>
+        <v>235.4397972044789</v>
       </c>
       <c r="F22" t="n">
-        <v>479.6898715151345</v>
+        <v>235.4397972044789</v>
       </c>
       <c r="G22" t="n">
-        <v>312.12645276517</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="H22" t="n">
-        <v>167.1488176381148</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="I22" t="n">
-        <v>74.01581619779761</v>
+        <v>67.76014887795046</v>
       </c>
       <c r="J22" t="n">
-        <v>128.7991412382935</v>
+        <v>114.4895697335315</v>
       </c>
       <c r="K22" t="n">
-        <v>348.6618097658892</v>
+        <v>321.1171996237078</v>
       </c>
       <c r="L22" t="n">
-        <v>685.5367640167623</v>
+        <v>641.0558610830035</v>
       </c>
       <c r="M22" t="n">
-        <v>1051.113293014892</v>
+        <v>988.7754439758885</v>
       </c>
       <c r="N22" t="n">
-        <v>1413.431845679018</v>
+        <v>1333.661648800916</v>
       </c>
       <c r="O22" t="n">
-        <v>1732.075376506938</v>
+        <v>1636.203584892169</v>
       </c>
       <c r="P22" t="n">
-        <v>1981.209282272309</v>
+        <v>1871.559794723877</v>
       </c>
       <c r="Q22" t="n">
-        <v>2070.261604846231</v>
+        <v>1951.073154786901</v>
       </c>
       <c r="R22" t="n">
-        <v>1986.699882252083</v>
+        <v>1951.073154786901</v>
       </c>
       <c r="S22" t="n">
-        <v>1797.443671415107</v>
+        <v>1920.74119053116</v>
       </c>
       <c r="T22" t="n">
-        <v>1576.272750542804</v>
+        <v>1699.073652377174</v>
       </c>
       <c r="U22" t="n">
-        <v>1576.272750542804</v>
+        <v>1409.972050319114</v>
       </c>
       <c r="V22" t="n">
-        <v>1321.588262336917</v>
+        <v>1155.287562113227</v>
       </c>
       <c r="W22" t="n">
-        <v>1321.588262336917</v>
+        <v>865.8703920762661</v>
       </c>
       <c r="X22" t="n">
-        <v>1093.5987114389</v>
+        <v>637.8808411782487</v>
       </c>
       <c r="Y22" t="n">
-        <v>872.8061322953696</v>
+        <v>417.0882620347186</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D23" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F23" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G23" t="n">
-        <v>379.2389888872365</v>
+        <v>328.4394675364385</v>
       </c>
       <c r="H23" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I23" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J23" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K23" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L23" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M23" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N23" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O23" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P23" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q23" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R23" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S23" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T23" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X23" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y23" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="24">
@@ -6056,16 +6056,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F24" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G24" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H24" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I24" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J24" t="n">
         <v>240.4596049779265</v>
@@ -6080,10 +6080,10 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N24" t="n">
-        <v>2275.814998036501</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O24" t="n">
-        <v>2552.77562977024</v>
+        <v>2200.595509637359</v>
       </c>
       <c r="P24" t="n">
         <v>2552.77562977024</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.2349062807025</v>
+        <v>561.9183350635719</v>
       </c>
       <c r="C25" t="n">
-        <v>762.2349062807025</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="D25" t="n">
-        <v>612.1182668683667</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="E25" t="n">
-        <v>464.2051732859736</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="F25" t="n">
-        <v>317.3152257880633</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G25" t="n">
         <v>317.3152257880633</v>
@@ -6144,7 +6144,7 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I25" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J25" t="n">
         <v>171.7937461156345</v>
@@ -6192,7 +6192,7 @@
         <v>964.3593790373418</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.2349062807025</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H26" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I26" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322607952</v>
       </c>
       <c r="J26" t="n">
-        <v>372.3074987251948</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K26" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L26" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M26" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N26" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O26" t="n">
         <v>3602.609239333933</v>
@@ -6247,25 +6247,25 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q26" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R26" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S26" t="n">
-        <v>4555.113898070877</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T26" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U26" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V26" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W26" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X26" t="n">
         <v>3093.963640945778</v>
@@ -6293,16 +6293,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F27" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G27" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H27" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I27" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J27" t="n">
         <v>240.4596049779265</v>
@@ -6317,7 +6317,7 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N27" t="n">
-        <v>2275.814998036501</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O27" t="n">
         <v>2552.77562977024</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.4491011061237</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C28" t="n">
-        <v>929.4491011061237</v>
+        <v>846.8182155057106</v>
       </c>
       <c r="D28" t="n">
-        <v>779.332461693788</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E28" t="n">
-        <v>631.4193681113949</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F28" t="n">
-        <v>484.5294206134845</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G28" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H28" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I28" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J28" t="n">
         <v>171.7937461156345</v>
@@ -6408,28 +6408,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R28" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S28" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T28" t="n">
-        <v>2208.69699212455</v>
+        <v>2140.837647083051</v>
       </c>
       <c r="U28" t="n">
-        <v>2103.981354220758</v>
+        <v>1851.761433397778</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.296866014872</v>
+        <v>1851.761433397778</v>
       </c>
       <c r="W28" t="n">
-        <v>1559.879695977911</v>
+        <v>1562.344263360817</v>
       </c>
       <c r="X28" t="n">
-        <v>1331.890145079894</v>
+        <v>1334.3547124628</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.097565936363</v>
+        <v>1113.56213331927</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I29" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J29" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K29" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L29" t="n">
         <v>1461.457663018651</v>
@@ -6478,7 +6478,7 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O29" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P29" t="n">
         <v>4150.915188021281</v>
@@ -6490,13 +6490,13 @@
         <v>4640.581161304027</v>
       </c>
       <c r="S29" t="n">
-        <v>4555.113898070876</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T29" t="n">
-        <v>4353.904749750194</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U29" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V29" t="n">
         <v>3820.198054476972</v>
@@ -6554,10 +6554,10 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N30" t="n">
-        <v>2005.899154770046</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O30" t="n">
-        <v>2552.77562977024</v>
+        <v>2200.595509637359</v>
       </c>
       <c r="P30" t="n">
         <v>2552.77562977024</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>846.8182155057106</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C31" t="n">
-        <v>846.8182155057106</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D31" t="n">
-        <v>696.7015760933748</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="E31" t="n">
-        <v>548.7884825109817</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="F31" t="n">
-        <v>401.8985350130713</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="G31" t="n">
-        <v>234.6843401876502</v>
+        <v>157.9086122687452</v>
       </c>
       <c r="H31" t="n">
         <v>92.81162322608054</v>
@@ -6648,25 +6648,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T31" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U31" t="n">
-        <v>1851.761433397778</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V31" t="n">
-        <v>1597.076945191891</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W31" t="n">
-        <v>1307.65977515493</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X31" t="n">
-        <v>1079.670224256913</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y31" t="n">
-        <v>1028.46668033595</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="32">
@@ -6694,49 +6694,49 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H32" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q32" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S32" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T32" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W32" t="n">
         <v>3467.429399206857</v>
@@ -6767,16 +6767,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F33" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G33" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H33" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I33" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J33" t="n">
         <v>240.4596049779265</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.2686446216949</v>
+        <v>934.5303514512212</v>
       </c>
       <c r="C34" t="n">
-        <v>779.332461693788</v>
+        <v>765.5941685233144</v>
       </c>
       <c r="D34" t="n">
-        <v>779.332461693788</v>
+        <v>615.4775291109786</v>
       </c>
       <c r="E34" t="n">
-        <v>631.4193681113949</v>
+        <v>467.5644355285855</v>
       </c>
       <c r="F34" t="n">
-        <v>484.5294206134845</v>
+        <v>320.6744880306751</v>
       </c>
       <c r="G34" t="n">
-        <v>317.3152257880633</v>
+        <v>153.4602932052539</v>
       </c>
       <c r="H34" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I34" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J34" t="n">
         <v>171.7937461156345</v>
@@ -6888,22 +6888,22 @@
         <v>2177.346239107599</v>
       </c>
       <c r="T34" t="n">
-        <v>1957.667456821981</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="U34" t="n">
-        <v>1668.591243136708</v>
+        <v>1888.270025422326</v>
       </c>
       <c r="V34" t="n">
-        <v>1413.906754930821</v>
+        <v>1633.585537216439</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.709688595465</v>
+        <v>1344.168367179478</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.709688595465</v>
+        <v>1116.178816281461</v>
       </c>
       <c r="Y34" t="n">
-        <v>1129.917109451934</v>
+        <v>1116.178816281461</v>
       </c>
     </row>
     <row r="35">
@@ -6931,43 +6931,43 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U35" t="n">
         <v>4151.260941820542</v>
@@ -7004,16 +7004,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G36" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J36" t="n">
         <v>240.4596049779265</v>
@@ -7028,16 +7028,16 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N36" t="n">
-        <v>1970.572950536136</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>570.8347179409782</v>
+        <v>579.0786403917443</v>
       </c>
       <c r="C37" t="n">
-        <v>401.8985350130713</v>
+        <v>410.1424574638374</v>
       </c>
       <c r="D37" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="E37" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F37" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G37" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H37" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J37" t="n">
         <v>171.7937461156345</v>
@@ -7119,28 +7119,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R37" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S37" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T37" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U37" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V37" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W37" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X37" t="n">
-        <v>973.275761914748</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y37" t="n">
-        <v>752.4831827712179</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="38">
@@ -7168,46 +7168,46 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L38" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V38" t="n">
         <v>3820.198054476972</v>
@@ -7247,10 +7247,10 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J39" t="n">
         <v>240.4596049779265</v>
@@ -7265,7 +7265,7 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>2005.899154770046</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O39" t="n">
         <v>2552.77562977024</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1072.552373744307</v>
+        <v>718.7478115233713</v>
       </c>
       <c r="C40" t="n">
-        <v>903.6161908164004</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="D40" t="n">
-        <v>779.3324616937879</v>
+        <v>549.8116285954644</v>
       </c>
       <c r="E40" t="n">
-        <v>631.4193681113948</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="F40" t="n">
-        <v>484.5294206134844</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G40" t="n">
-        <v>317.3152257880633</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H40" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J40" t="n">
         <v>171.7937461156345</v>
@@ -7365,19 +7365,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.667456821981</v>
+        <v>1893.280064638006</v>
       </c>
       <c r="V40" t="n">
-        <v>1702.982968616094</v>
+        <v>1638.595576432119</v>
       </c>
       <c r="W40" t="n">
-        <v>1702.982968616094</v>
+        <v>1349.178406395158</v>
       </c>
       <c r="X40" t="n">
-        <v>1474.993417718077</v>
+        <v>1121.188855497141</v>
       </c>
       <c r="Y40" t="n">
-        <v>1254.200838574547</v>
+        <v>900.396276353611</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D41" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G41" t="n">
-        <v>379.2389888872365</v>
+        <v>328.4394675364385</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S41" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T41" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X41" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y41" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="42">
@@ -7478,16 +7478,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G42" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J42" t="n">
         <v>240.4596049779265</v>
@@ -7502,7 +7502,7 @@
         <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>2005.899154770046</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O42" t="n">
         <v>2552.77562977024</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>633.1413562138805</v>
+        <v>956.512567072461</v>
       </c>
       <c r="C43" t="n">
-        <v>464.2051732859736</v>
+        <v>787.5763841445541</v>
       </c>
       <c r="D43" t="n">
-        <v>464.2051732859736</v>
+        <v>637.4597447322184</v>
       </c>
       <c r="E43" t="n">
-        <v>464.2051732859736</v>
+        <v>489.5466511498253</v>
       </c>
       <c r="F43" t="n">
-        <v>317.3152257880633</v>
+        <v>342.6567036519149</v>
       </c>
       <c r="G43" t="n">
-        <v>317.3152257880633</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H43" t="n">
         <v>175.4425088264937</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J43" t="n">
         <v>171.7937461156345</v>
@@ -7605,16 +7605,16 @@
         <v>1668.591243136708</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.989121122628</v>
+        <v>1648.370781083191</v>
       </c>
       <c r="W43" t="n">
-        <v>1263.571951085668</v>
+        <v>1358.953611046231</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.58240018765</v>
+        <v>1358.953611046231</v>
       </c>
       <c r="Y43" t="n">
-        <v>814.7898210441202</v>
+        <v>1138.161031902701</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I44" t="n">
         <v>92.81162322608054</v>
@@ -7651,7 +7651,7 @@
         <v>372.3074987251936</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L44" t="n">
         <v>1461.45766301865</v>
@@ -7663,19 +7663,19 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S44" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T44" t="n">
         <v>4404.704271100993</v>
@@ -7721,10 +7721,10 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I45" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J45" t="n">
         <v>240.4596049779265</v>
@@ -7733,22 +7733,22 @@
         <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.700680385037</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="M45" t="n">
-        <v>1653.719034637164</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N45" t="n">
-        <v>2275.814998036501</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O45" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P45" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7797,13 +7797,13 @@
         <v>260.0258180515017</v>
       </c>
       <c r="G46" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H46" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J46" t="n">
         <v>171.7937461156345</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65.29236085646849</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K2" t="n">
-        <v>46.60529509404796</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L2" t="n">
-        <v>20.54348275905164</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.244969452351333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.307847721892557</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>49.05114215269009</v>
+        <v>57.0712122000252</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.9660729197108</v>
+        <v>53.79923501776801</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>57.89560904784604</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K3" t="n">
-        <v>20.00854994078954</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.8343584238816</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>57.9369253307096</v>
+        <v>101.1290019093975</v>
       </c>
       <c r="L4" t="n">
-        <v>57.87034639841987</v>
+        <v>83.74833088504644</v>
       </c>
       <c r="M4" t="n">
-        <v>56.96725532498971</v>
+        <v>79.77291888937611</v>
       </c>
       <c r="N4" t="n">
-        <v>48.00724248301907</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O4" t="n">
-        <v>65.36161235427966</v>
+        <v>92.56394902735028</v>
       </c>
       <c r="P4" t="n">
-        <v>63.73743033232117</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K5" t="n">
-        <v>72.40799877971997</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.780617298235441</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>101.1290019093975</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>28.48717608127421</v>
+        <v>114.8216795779766</v>
       </c>
       <c r="M7" t="n">
-        <v>82.00569282084165</v>
+        <v>116.4537900083358</v>
       </c>
       <c r="N7" t="n">
-        <v>71.20009869781896</v>
+        <v>108.4136727881177</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357805</v>
+        <v>129.2143182548925</v>
       </c>
       <c r="P7" t="n">
-        <v>106.4346558163342</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L10" t="n">
-        <v>114.8216795779765</v>
+        <v>144.4438298277635</v>
       </c>
       <c r="M10" t="n">
-        <v>116.4537900083357</v>
+        <v>141.0220468163144</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4136727881176</v>
+        <v>127.2904588209281</v>
       </c>
       <c r="O10" t="n">
-        <v>129.2143182548924</v>
+        <v>154.781822354183</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>26.42494196047619</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.60391340578897</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.1760445067976</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>202.5710127112391</v>
+        <v>203.6939411104485</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.192784316300845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>140.036588951835</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.5509115087003</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>95.66205837937542</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>87.89994873937368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2043096403457</v>
+        <v>286.2105860374802</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>18.55077498533149</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.6140254984835</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.4565301752343</v>
+        <v>44.88446836725205</v>
       </c>
       <c r="I14" t="n">
-        <v>29.71431954844607</v>
+        <v>39.60391340578897</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>108.0215569904031</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.6939411104485</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9910777676207</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>289.6688268005942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>25.63649845165503</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8877845624648</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.5278587757846</v>
+        <v>144.5509115087003</v>
       </c>
       <c r="I16" t="n">
-        <v>92.20167142591406</v>
+        <v>95.66205837937542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>87.89994873937368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>109.4039160376616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>39.60391340578897</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>108.0215569904031</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.6939411104485</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.9910777676207</v>
       </c>
       <c r="V17" t="n">
-        <v>280.532721746022</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>49.34267727471359</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>113.1795731590529</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>143.5278587757846</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.72610536820686</v>
+        <v>87.89994873937368</v>
       </c>
       <c r="S19" t="n">
-        <v>187.3636487286056</v>
+        <v>1.136649353923872</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>160.13583851993</v>
       </c>
       <c r="H20" t="n">
-        <v>291.4565301752343</v>
+        <v>294.0836439315798</v>
       </c>
       <c r="I20" t="n">
-        <v>29.71431954844607</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>108.0215569904031</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.6939411104484</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9705559465044</v>
+        <v>250.9910777676207</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>121.5600378824388</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>104.3276657547016</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.5509115087003</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>95.6620583793754</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>87.89994873937367</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>159.3403129998795</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2043096403457</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.29152613729119</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>90.63179579304128</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.48142532302188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>50.29152613729029</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>50.29152613728996</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>83.00232264514166</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>182.5169700236673</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>50.29152613729029</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>50.2915261372907</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>76.00797063971594</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>167.893144870342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>50.29152613728974</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>50.2915261372907</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>80.41180651257224</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>223.957902664588</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>84.16945386597439</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440902</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>8.827219048632173</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.29152613729119</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>50.2915261372907</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>25.57458118682599</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>222.441933286285</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>50.2915261372909</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>137.6915425298891</v>
+        <v>232.1193858908464</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>50.2915261372909</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>843813.2299310716</v>
+        <v>839691.6855084629</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>839691.6855084629</v>
+        <v>834604.8215367256</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>834604.8215367256</v>
+        <v>834143.0567141845</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>728626.7386089715</v>
+        <v>699920.1622741084</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>728626.7386089715</v>
+        <v>699920.1622741085</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>728626.7386089714</v>
+        <v>699920.1622741085</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>728626.7386089715</v>
+        <v>699920.1622741085</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814878.6509382775</v>
+        <v>814878.6509382776</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814878.6509382774</v>
+        <v>814878.6509382775</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814878.6509382775</v>
+        <v>814878.6509382772</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814878.6509382776</v>
+        <v>814878.6509382774</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814878.6509382775</v>
+        <v>814878.6509382774</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814878.6509382774</v>
+        <v>814878.6509382776</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814878.6509382774</v>
+        <v>814878.6509382775</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>537320.8944815433</v>
+        <v>515790.9622303963</v>
       </c>
       <c r="F2" t="n">
-        <v>537320.8944815432</v>
+        <v>515790.9622303963</v>
       </c>
       <c r="G2" t="n">
-        <v>537320.8944815435</v>
+        <v>515790.9622303963</v>
       </c>
       <c r="H2" t="n">
-        <v>537320.8944815435</v>
+        <v>515790.9622303966</v>
       </c>
       <c r="I2" t="n">
+        <v>602009.8287285229</v>
+      </c>
+      <c r="J2" t="n">
+        <v>602009.8287285228</v>
+      </c>
+      <c r="K2" t="n">
+        <v>602009.8287285229</v>
+      </c>
+      <c r="L2" t="n">
+        <v>602009.8287285229</v>
+      </c>
+      <c r="M2" t="n">
+        <v>602009.8287285229</v>
+      </c>
+      <c r="N2" t="n">
         <v>602009.828728523</v>
       </c>
-      <c r="J2" t="n">
-        <v>602009.8287285231</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>602009.828728523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>602009.8287285228</v>
-      </c>
-      <c r="M2" t="n">
-        <v>602009.828728523</v>
-      </c>
-      <c r="N2" t="n">
-        <v>602009.8287285228</v>
-      </c>
-      <c r="O2" t="n">
-        <v>602009.8287285229</v>
       </c>
       <c r="P2" t="n">
         <v>602009.828728523</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>331580.0723202187</v>
+        <v>400938.6844931956</v>
       </c>
       <c r="C3" t="n">
-        <v>65806.79407012099</v>
+        <v>90537.55203776158</v>
       </c>
       <c r="D3" t="n">
-        <v>85535.56659127232</v>
+        <v>41586.85471619456</v>
       </c>
       <c r="E3" t="n">
-        <v>797279.1513670041</v>
+        <v>683404.5052809668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>206797.4975364752</v>
+        <v>275624.3558468671</v>
       </c>
       <c r="J3" t="n">
-        <v>3647.030971604158</v>
+        <v>14458.74958747809</v>
       </c>
       <c r="K3" t="n">
-        <v>10635.02467754</v>
+        <v>14631.75822149411</v>
       </c>
       <c r="L3" t="n">
-        <v>14388.60433323559</v>
+        <v>8790.72636878529</v>
       </c>
       <c r="M3" t="n">
-        <v>202624.044893178</v>
+        <v>174481.6110024689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349671.7072326378</v>
+        <v>329990.1586268987</v>
       </c>
       <c r="C4" t="n">
-        <v>329990.1586268986</v>
+        <v>303495.7073635384</v>
       </c>
       <c r="D4" t="n">
-        <v>303495.7073635384</v>
+        <v>290437.8379871125</v>
       </c>
       <c r="E4" t="n">
-        <v>12868.66029645831</v>
+        <v>12828.18804182694</v>
       </c>
       <c r="F4" t="n">
-        <v>12868.66029645831</v>
+        <v>12828.18804182694</v>
       </c>
       <c r="G4" t="n">
-        <v>12868.66029645831</v>
+        <v>12828.18804182694</v>
       </c>
       <c r="H4" t="n">
-        <v>12868.66029645831</v>
+        <v>12828.18804182694</v>
       </c>
       <c r="I4" t="n">
         <v>12990.33152560508</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41870.80590462394</v>
+        <v>45639.02497530233</v>
       </c>
       <c r="C5" t="n">
-        <v>45639.02497530233</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="E5" t="n">
-        <v>81677.7333986235</v>
+        <v>75532.36741730722</v>
       </c>
       <c r="F5" t="n">
-        <v>81677.7333986235</v>
+        <v>75532.36741730722</v>
       </c>
       <c r="G5" t="n">
-        <v>81677.7333986235</v>
+        <v>75532.36741730722</v>
       </c>
       <c r="H5" t="n">
-        <v>81677.7333986235</v>
+        <v>75532.36741730724</v>
       </c>
       <c r="I5" t="n">
         <v>100142.1285138384</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107341.2580592675</v>
+        <v>-160786.5406971842</v>
       </c>
       <c r="C6" t="n">
-        <v>174345.3497258904</v>
+        <v>170924.6948851902</v>
       </c>
       <c r="D6" t="n">
-        <v>175926.6803316792</v>
+        <v>230037.5149158845</v>
       </c>
       <c r="E6" t="n">
-        <v>-357119.9983444316</v>
+        <v>-256307.3997269306</v>
       </c>
       <c r="F6" t="n">
-        <v>440159.1530225725</v>
+        <v>427097.1055540361</v>
       </c>
       <c r="G6" t="n">
-        <v>440159.1530225727</v>
+        <v>427097.105554036</v>
       </c>
       <c r="H6" t="n">
-        <v>440159.1530225727</v>
+        <v>427097.1055540362</v>
       </c>
       <c r="I6" t="n">
-        <v>281620.8211969481</v>
+        <v>213207.1078466467</v>
       </c>
       <c r="J6" t="n">
-        <v>484771.2877618192</v>
+        <v>474372.7141060355</v>
       </c>
       <c r="K6" t="n">
-        <v>477783.2940558833</v>
+        <v>474199.7054720196</v>
       </c>
       <c r="L6" t="n">
-        <v>474029.7144001874</v>
+        <v>480040.7373247285</v>
       </c>
       <c r="M6" t="n">
-        <v>285794.2738402452</v>
+        <v>314349.8526910448</v>
       </c>
       <c r="N6" t="n">
-        <v>488418.3187334231</v>
+        <v>488831.4636935139</v>
       </c>
       <c r="O6" t="n">
-        <v>488418.3187334231</v>
+        <v>488831.4636935139</v>
       </c>
       <c r="P6" t="n">
-        <v>488418.3187334232</v>
+        <v>488831.4636935139</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.2532318645833</v>
+        <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>396.859943267568</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985022</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="E3" t="n">
-        <v>1166.317114142079</v>
+        <v>1102.507076608481</v>
       </c>
       <c r="F3" t="n">
-        <v>1166.317114142079</v>
+        <v>1102.507076608481</v>
       </c>
       <c r="G3" t="n">
-        <v>1166.317114142079</v>
+        <v>1102.507076608481</v>
       </c>
       <c r="H3" t="n">
-        <v>1166.317114142079</v>
+        <v>1102.507076608481</v>
       </c>
       <c r="I3" t="n">
         <v>1358.041048716386</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C4" t="n">
-        <v>55.26115480377223</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E4" t="n">
-        <v>925.1977024724702</v>
+        <v>847.0018609743805</v>
       </c>
       <c r="F4" t="n">
-        <v>925.19770247247</v>
+        <v>847.0018609743807</v>
       </c>
       <c r="G4" t="n">
-        <v>925.19770247247</v>
+        <v>847.0018609743807</v>
       </c>
       <c r="H4" t="n">
-        <v>925.19770247247</v>
+        <v>847.0018609743807</v>
       </c>
       <c r="I4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="J4" t="n">
         <v>1160.145290326007</v>
@@ -26822,16 +26822,16 @@
         <v>1160.145290326007</v>
       </c>
       <c r="M4" t="n">
+        <v>1160.145290326006</v>
+      </c>
+      <c r="N4" t="n">
         <v>1160.145290326007</v>
       </c>
-      <c r="N4" t="n">
-        <v>1160.145290326006</v>
-      </c>
       <c r="O4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="P4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.2532318645833</v>
+        <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>57.60671140298479</v>
+        <v>79.25580793093417</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093417</v>
+        <v>35.96111195871862</v>
       </c>
       <c r="E3" t="n">
-        <v>690.2013629435767</v>
+        <v>590.4302134512599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>191.7239345743069</v>
+        <v>255.5339721079049</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C4" t="n">
-        <v>41.32224937653498</v>
+        <v>56.85150532115148</v>
       </c>
       <c r="D4" t="n">
-        <v>56.85150532115142</v>
+        <v>34.73346096378492</v>
       </c>
       <c r="E4" t="n">
-        <v>813.0850423475465</v>
+        <v>700.1557398856719</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>234.9475878535364</v>
+        <v>313.1434293516262</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723761</v>
+        <v>55.26115480377189</v>
       </c>
       <c r="K4" t="n">
-        <v>41.32224937653476</v>
+        <v>56.85150532115148</v>
       </c>
       <c r="L4" t="n">
-        <v>56.85150532115165</v>
+        <v>34.73346096378492</v>
       </c>
       <c r="M4" t="n">
-        <v>813.0850423475465</v>
+        <v>700.1557398856717</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="K4" t="n">
-        <v>41.32224937653498</v>
+        <v>56.85150532115148</v>
       </c>
       <c r="L4" t="n">
-        <v>56.85150532115142</v>
+        <v>34.73346096378492</v>
       </c>
       <c r="M4" t="n">
-        <v>813.0850423475465</v>
+        <v>700.1557398856719</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>394.5986578414009</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>366.299200219749</v>
       </c>
       <c r="H2" t="n">
-        <v>325.5074567455836</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I2" t="n">
-        <v>143.9578475744879</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.25939512250086</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.9417458832737</v>
+        <v>117.4033531454492</v>
       </c>
       <c r="T2" t="n">
-        <v>217.1256745993586</v>
+        <v>160.8507574672786</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2365463408047</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.5942782226301</v>
+        <v>111.2720288460951</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>145.9293523312543</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.613802664483</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H3" t="n">
-        <v>105.1879384198378</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I3" t="n">
-        <v>64.2726906803115</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>54.85152518778424</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>158.1290443401915</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
-        <v>197.2234671845994</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8933745481638</v>
+        <v>170.6240678512685</v>
       </c>
       <c r="V3" t="n">
-        <v>220.5231992491147</v>
+        <v>177.539432345653</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>191.8340797762402</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>191.7437903500671</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>153.3079156713906</v>
+        <v>132.3106232623972</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>93.35431821444013</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>91.17280784279694</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3792112354243</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H4" t="n">
-        <v>156.7879977408238</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I4" t="n">
-        <v>123.1140335818564</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J4" t="n">
-        <v>37.82978591782346</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.93480524014232</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>135.8471665269449</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S4" t="n">
-        <v>213.3551481109984</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T4" t="n">
-        <v>225.3316710844068</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2856601861436</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>299.4218868169107</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.6148909379392</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>358.4461658540058</v>
+        <v>351.1526508336461</v>
       </c>
       <c r="H5" t="n">
-        <v>274.4617140741966</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>49.65101377519441</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>172.6645079492214</v>
+        <v>53.29137858519753</v>
       </c>
       <c r="T5" t="n">
-        <v>216.1119122710508</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2180195592479</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924893</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.8591584987048</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>60.59583886339203</v>
       </c>
       <c r="D6" t="n">
-        <v>92.18391076086652</v>
+        <v>35.33240543971505</v>
       </c>
       <c r="E6" t="n">
-        <v>102.3839256516287</v>
+        <v>45.53242033047724</v>
       </c>
       <c r="F6" t="n">
-        <v>89.80805758961165</v>
+        <v>82.89430443284328</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9912405093721</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0065332792414</v>
+        <v>54.13711731454486</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T6" t="n">
-        <v>196.7240278659264</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>111.9856662948556</v>
+        <v>55.13416097370413</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>64.13520680090012</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32130252164546</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>100.6032468099677</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>111.4911220480084</v>
+        <v>17.51829177012727</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>89.85405166517774</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5447863772357</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8878160949084</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>294.7633856167878</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519758</v>
+        <v>15.26359063142547</v>
       </c>
       <c r="T8" t="n">
-        <v>145.6050701070699</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1925302541847</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>180.9061373814263</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>260.5746451802455</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>60.59583886339209</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3324054397151</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>82.89430443284333</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I9" t="n">
-        <v>54.13711731454486</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>40.54833922112497</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>205.5982975530829</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>58.92686411476885</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>58.83657468859573</v>
       </c>
     </row>
     <row r="10">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>87.40193105742125</v>
       </c>
       <c r="C10" t="n">
-        <v>101.1563144875834</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>36.50281289328871</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>34.32130252164552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>55.01974984612797</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H10" t="n">
-        <v>154.5937101357652</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.26856482072056</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>138.6889896488451</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S10" t="n">
-        <v>209.0540751673406</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>105.2915222351194</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>78.86353430032852</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>71.73853226338616</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.363832087897821</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H2" t="n">
-        <v>13.96734537018356</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5791365686808</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J2" t="n">
-        <v>115.7535436702178</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K2" t="n">
-        <v>173.4845559509326</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L2" t="n">
-        <v>215.2229322109356</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M2" t="n">
-        <v>239.4769811040885</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N2" t="n">
-        <v>243.3519690238282</v>
+        <v>284.6742184003631</v>
       </c>
       <c r="O2" t="n">
-        <v>229.7903636997942</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P2" t="n">
-        <v>196.1207590298167</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q2" t="n">
-        <v>147.2785223819759</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R2" t="n">
-        <v>85.67081739141157</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S2" t="n">
-        <v>31.07832370297163</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T2" t="n">
-        <v>5.970174964772715</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1091065670318257</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7297144987275942</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H3" t="n">
-        <v>7.047505816658608</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I3" t="n">
-        <v>25.12394217110358</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J3" t="n">
-        <v>68.94201761882066</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K3" t="n">
-        <v>117.8328890335695</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>152.4932852071114</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>156.0729393492556</v>
+        <v>197.3951887257905</v>
       </c>
       <c r="N3" t="n">
-        <v>145.2806175105706</v>
+        <v>186.6028668871055</v>
       </c>
       <c r="O3" t="n">
-        <v>155.9719617736115</v>
+        <v>197.8573992482167</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>140.21234267537</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.14741566213992</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R3" t="n">
-        <v>45.30630896485889</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S3" t="n">
-        <v>13.55412676364631</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T3" t="n">
-        <v>2.941261510222188</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04800753281102595</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6117681230344943</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H4" t="n">
-        <v>5.439174766615781</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I4" t="n">
-        <v>18.39753591816462</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J4" t="n">
-        <v>43.25200629853875</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K4" t="n">
-        <v>71.07633283982578</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L4" t="n">
-        <v>90.95323531005566</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M4" t="n">
-        <v>95.89743404985259</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N4" t="n">
-        <v>93.61720740945137</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O4" t="n">
-        <v>86.47064342673019</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P4" t="n">
-        <v>73.99057371682645</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.22723801155207</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50731942298735</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S4" t="n">
-        <v>10.66144992597387</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T4" t="n">
-        <v>2.613918343874657</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03336917034733609</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.595416857357056</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H5" t="n">
-        <v>16.33906289040796</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>61.50730839325797</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>135.4090114971086</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>202.9430070690328</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>251.7687457173739</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M5" t="n">
-        <v>280.1412402543974</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>284.6742184003631</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O5" t="n">
-        <v>268.8097920250189</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>229.4229383590166</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q5" t="n">
-        <v>172.2870721549169</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R5" t="n">
-        <v>100.2181041659553</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>36.35556163702395</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T5" t="n">
-        <v>6.983937293080517</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8536232741981653</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>8.244203727124386</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>29.39009957217367</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J6" t="n">
-        <v>80.64867960308193</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3448253911411</v>
+        <v>168.0758322358087</v>
       </c>
       <c r="M6" t="n">
-        <v>197.3951887257905</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>163.8106038079154</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O6" t="n">
-        <v>197.8573992482167</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.96426215905</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>52.99952223486505</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>15.85567792205802</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>3.440700828895235</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H7" t="n">
-        <v>6.362770893699701</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>21.52151954637894</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>50.59638981626026</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K7" t="n">
-        <v>83.14541106491014</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L7" t="n">
-        <v>106.3975001999641</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>112.1812459305356</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>109.5138266397209</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>101.1537442282647</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>86.55450303658561</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.92585143340277</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>32.17818490821952</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S7" t="n">
-        <v>12.47181165973652</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.057773333373064</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889109</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137793</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172216</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307195</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M8" t="n">
-        <v>336.087476975413</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O8" t="n">
-        <v>322.493056380891</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R8" t="n">
-        <v>120.23238615567</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.024098030879797</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444359</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>200.3731410096121</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N9" t="n">
-        <v>216.6986083828519</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102001</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515094</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0221717577892</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674351</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I10" t="n">
-        <v>25.8195230322073</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L10" t="n">
-        <v>127.6458523786935</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M10" t="n">
-        <v>134.584654064193</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020392</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O10" t="n">
-        <v>121.354880321874</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187684</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097383</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S10" t="n">
-        <v>14.96252286963161</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T10" t="n">
-        <v>3.668432837103212</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.68871201665157</v>
+        <v>4.432189252697406</v>
       </c>
       <c r="H11" t="n">
-        <v>48.01827194053291</v>
+        <v>45.39115818418733</v>
       </c>
       <c r="I11" t="n">
-        <v>180.7615700219598</v>
+        <v>170.8719761646169</v>
       </c>
       <c r="J11" t="n">
-        <v>397.9485715232815</v>
+        <v>376.1765225861269</v>
       </c>
       <c r="K11" t="n">
-        <v>596.4217511881426</v>
+        <v>563.7910936528082</v>
       </c>
       <c r="L11" t="n">
-        <v>739.9139215677433</v>
+        <v>699.4327054950465</v>
       </c>
       <c r="M11" t="n">
-        <v>823.2968038938706</v>
+        <v>778.2536511177041</v>
       </c>
       <c r="N11" t="n">
-        <v>836.6186069111819</v>
+        <v>790.8466088319307</v>
       </c>
       <c r="O11" t="n">
-        <v>789.9952267956029</v>
+        <v>746.7740269504208</v>
       </c>
       <c r="P11" t="n">
-        <v>674.2426488845171</v>
+        <v>637.3543547744534</v>
       </c>
       <c r="Q11" t="n">
-        <v>506.3281497881826</v>
+        <v>478.6265771622274</v>
       </c>
       <c r="R11" t="n">
-        <v>294.5273062159894</v>
+        <v>278.4135081447537</v>
       </c>
       <c r="S11" t="n">
-        <v>106.8440250794478</v>
+        <v>100.9985125958423</v>
       </c>
       <c r="T11" t="n">
-        <v>20.52483685289226</v>
+        <v>19.40190845368291</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3750969613321256</v>
+        <v>0.3545751402157925</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.508682094569755</v>
+        <v>2.371430315723902</v>
       </c>
       <c r="H12" t="n">
-        <v>24.22858759755527</v>
+        <v>22.90302436501769</v>
       </c>
       <c r="I12" t="n">
-        <v>86.37348439637096</v>
+        <v>81.64792972996769</v>
       </c>
       <c r="J12" t="n">
-        <v>237.0154429786276</v>
+        <v>224.0481597851253</v>
       </c>
       <c r="K12" t="n">
-        <v>405.0971433148011</v>
+        <v>382.9339909386268</v>
       </c>
       <c r="L12" t="n">
-        <v>544.7031012792795</v>
+        <v>514.9020078066306</v>
       </c>
       <c r="M12" t="n">
-        <v>635.6428272074329</v>
+        <v>600.8663567516219</v>
       </c>
       <c r="N12" t="n">
-        <v>652.4664014293504</v>
+        <v>616.7695012811915</v>
       </c>
       <c r="O12" t="n">
-        <v>596.8792876496732</v>
+        <v>564.2235979696251</v>
       </c>
       <c r="P12" t="n">
-        <v>393.7271420599679</v>
+        <v>452.8391802016985</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>258.4191651642973</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>46.59766960746888</v>
+        <v>44.04827801355578</v>
       </c>
       <c r="T12" t="n">
-        <v>10.11174931977896</v>
+        <v>9.55852833399239</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1650448746427471</v>
+        <v>0.1560151523502568</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.103194795993913</v>
+        <v>1.988127515195621</v>
       </c>
       <c r="H13" t="n">
-        <v>18.69931373165498</v>
+        <v>17.67626099873926</v>
       </c>
       <c r="I13" t="n">
-        <v>63.24880350134423</v>
+        <v>59.78841654788287</v>
       </c>
       <c r="J13" t="n">
-        <v>148.6958720767696</v>
+        <v>140.5606153243304</v>
       </c>
       <c r="K13" t="n">
-        <v>244.3529953891109</v>
+        <v>230.9842694927275</v>
       </c>
       <c r="L13" t="n">
-        <v>312.6877063062223</v>
+        <v>295.5803398500835</v>
       </c>
       <c r="M13" t="n">
-        <v>329.6853442483912</v>
+        <v>311.6480249501644</v>
       </c>
       <c r="N13" t="n">
-        <v>321.8461636451414</v>
+        <v>304.2377314844355</v>
       </c>
       <c r="O13" t="n">
-        <v>297.2770244373942</v>
+        <v>281.0127873296502</v>
       </c>
       <c r="P13" t="n">
-        <v>254.3718505991182</v>
+        <v>240.4549860196593</v>
       </c>
       <c r="Q13" t="n">
-        <v>176.1138842354539</v>
+        <v>166.4785685678806</v>
       </c>
       <c r="R13" t="n">
-        <v>94.56728600896263</v>
+        <v>89.3934426377958</v>
       </c>
       <c r="S13" t="n">
-        <v>36.65294930836663</v>
+        <v>34.64764042390912</v>
       </c>
       <c r="T13" t="n">
-        <v>8.986377764701261</v>
+        <v>8.494726655835832</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1147197161451226</v>
+        <v>0.1084433190106703</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.68871201665157</v>
+        <v>4.432189252697406</v>
       </c>
       <c r="H14" t="n">
-        <v>48.01827194053291</v>
+        <v>45.39115818418733</v>
       </c>
       <c r="I14" t="n">
-        <v>180.7615700219598</v>
+        <v>170.8719761646169</v>
       </c>
       <c r="J14" t="n">
-        <v>397.9485715232815</v>
+        <v>376.1765225861269</v>
       </c>
       <c r="K14" t="n">
-        <v>596.4217511881426</v>
+        <v>563.7910936528082</v>
       </c>
       <c r="L14" t="n">
-        <v>739.9139215677433</v>
+        <v>699.4327054950465</v>
       </c>
       <c r="M14" t="n">
-        <v>823.2968038938706</v>
+        <v>778.2536511177041</v>
       </c>
       <c r="N14" t="n">
-        <v>836.6186069111819</v>
+        <v>790.8466088319307</v>
       </c>
       <c r="O14" t="n">
-        <v>789.9952267956029</v>
+        <v>746.7740269504208</v>
       </c>
       <c r="P14" t="n">
-        <v>674.2426488845171</v>
+        <v>637.3543547744534</v>
       </c>
       <c r="Q14" t="n">
-        <v>506.3281497881826</v>
+        <v>478.6265771622274</v>
       </c>
       <c r="R14" t="n">
-        <v>294.5273062159894</v>
+        <v>278.4135081447537</v>
       </c>
       <c r="S14" t="n">
-        <v>106.8440250794478</v>
+        <v>100.9985125958423</v>
       </c>
       <c r="T14" t="n">
-        <v>20.52483685289226</v>
+        <v>19.40190845368291</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3750969613321256</v>
+        <v>0.3545751402157925</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.508682094569755</v>
+        <v>2.371430315723902</v>
       </c>
       <c r="H15" t="n">
-        <v>24.22858759755527</v>
+        <v>22.90302436501769</v>
       </c>
       <c r="I15" t="n">
-        <v>86.37348439637096</v>
+        <v>81.64792972996769</v>
       </c>
       <c r="J15" t="n">
-        <v>237.0154429786276</v>
+        <v>224.0481597851253</v>
       </c>
       <c r="K15" t="n">
-        <v>405.0971433148011</v>
+        <v>382.9339909386268</v>
       </c>
       <c r="L15" t="n">
-        <v>544.7031012792795</v>
+        <v>514.9020078066306</v>
       </c>
       <c r="M15" t="n">
-        <v>635.6428272074329</v>
+        <v>600.8663567516219</v>
       </c>
       <c r="N15" t="n">
-        <v>652.4664014293504</v>
+        <v>616.7695012811915</v>
       </c>
       <c r="O15" t="n">
-        <v>596.8792876496732</v>
+        <v>564.2235979696251</v>
       </c>
       <c r="P15" t="n">
-        <v>393.7271420599679</v>
+        <v>452.8391802016985</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>258.4191651642973</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.59766960746888</v>
+        <v>44.04827801355578</v>
       </c>
       <c r="T15" t="n">
-        <v>10.11174931977896</v>
+        <v>9.55852833399239</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1650448746427471</v>
+        <v>0.1560151523502568</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.103194795993913</v>
+        <v>1.988127515195621</v>
       </c>
       <c r="H16" t="n">
-        <v>18.69931373165498</v>
+        <v>17.67626099873926</v>
       </c>
       <c r="I16" t="n">
-        <v>63.24880350134423</v>
+        <v>59.78841654788287</v>
       </c>
       <c r="J16" t="n">
-        <v>148.6958720767696</v>
+        <v>140.5606153243304</v>
       </c>
       <c r="K16" t="n">
-        <v>244.3529953891109</v>
+        <v>230.9842694927275</v>
       </c>
       <c r="L16" t="n">
-        <v>312.6877063062223</v>
+        <v>295.5803398500835</v>
       </c>
       <c r="M16" t="n">
-        <v>329.6853442483912</v>
+        <v>311.6480249501644</v>
       </c>
       <c r="N16" t="n">
-        <v>321.8461636451414</v>
+        <v>304.2377314844355</v>
       </c>
       <c r="O16" t="n">
-        <v>297.2770244373942</v>
+        <v>281.0127873296502</v>
       </c>
       <c r="P16" t="n">
-        <v>254.3718505991182</v>
+        <v>240.4549860196593</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.1138842354539</v>
+        <v>166.4785685678806</v>
       </c>
       <c r="R16" t="n">
-        <v>94.56728600896263</v>
+        <v>89.3934426377958</v>
       </c>
       <c r="S16" t="n">
-        <v>36.65294930836663</v>
+        <v>34.64764042390912</v>
       </c>
       <c r="T16" t="n">
-        <v>8.986377764701261</v>
+        <v>8.494726655835832</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1147197161451226</v>
+        <v>0.1084433190106703</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.68871201665157</v>
+        <v>4.432189252697406</v>
       </c>
       <c r="H17" t="n">
-        <v>48.01827194053291</v>
+        <v>45.39115818418733</v>
       </c>
       <c r="I17" t="n">
-        <v>180.7615700219598</v>
+        <v>170.8719761646169</v>
       </c>
       <c r="J17" t="n">
-        <v>397.9485715232815</v>
+        <v>376.1765225861269</v>
       </c>
       <c r="K17" t="n">
-        <v>596.4217511881426</v>
+        <v>563.7910936528082</v>
       </c>
       <c r="L17" t="n">
-        <v>739.9139215677433</v>
+        <v>699.4327054950465</v>
       </c>
       <c r="M17" t="n">
-        <v>823.2968038938706</v>
+        <v>778.2536511177041</v>
       </c>
       <c r="N17" t="n">
-        <v>836.6186069111819</v>
+        <v>790.8466088319307</v>
       </c>
       <c r="O17" t="n">
-        <v>789.9952267956029</v>
+        <v>746.7740269504208</v>
       </c>
       <c r="P17" t="n">
-        <v>674.2426488845171</v>
+        <v>637.3543547744534</v>
       </c>
       <c r="Q17" t="n">
-        <v>506.3281497881826</v>
+        <v>478.6265771622274</v>
       </c>
       <c r="R17" t="n">
-        <v>294.5273062159894</v>
+        <v>278.4135081447537</v>
       </c>
       <c r="S17" t="n">
-        <v>106.8440250794478</v>
+        <v>100.9985125958423</v>
       </c>
       <c r="T17" t="n">
-        <v>20.52483685289226</v>
+        <v>19.40190845368291</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3750969613321256</v>
+        <v>0.3545751402157925</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.508682094569755</v>
+        <v>2.371430315723902</v>
       </c>
       <c r="H18" t="n">
-        <v>24.22858759755527</v>
+        <v>22.90302436501769</v>
       </c>
       <c r="I18" t="n">
-        <v>86.37348439637096</v>
+        <v>81.64792972996769</v>
       </c>
       <c r="J18" t="n">
-        <v>237.0154429786276</v>
+        <v>224.0481597851253</v>
       </c>
       <c r="K18" t="n">
-        <v>405.0971433148011</v>
+        <v>382.9339909386268</v>
       </c>
       <c r="L18" t="n">
-        <v>544.7031012792795</v>
+        <v>514.9020078066306</v>
       </c>
       <c r="M18" t="n">
-        <v>635.6428272074329</v>
+        <v>600.8663567516219</v>
       </c>
       <c r="N18" t="n">
-        <v>652.4664014293504</v>
+        <v>616.7695012811915</v>
       </c>
       <c r="O18" t="n">
-        <v>596.8792876496732</v>
+        <v>564.2235979696251</v>
       </c>
       <c r="P18" t="n">
-        <v>393.7271420599679</v>
+        <v>452.8391802016985</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>256.8619693502458</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>147.2366997780157</v>
       </c>
       <c r="S18" t="n">
-        <v>46.59766960746888</v>
+        <v>44.04827801355578</v>
       </c>
       <c r="T18" t="n">
-        <v>10.11174931977896</v>
+        <v>9.55852833399239</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1650448746427471</v>
+        <v>0.1560151523502568</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.103194795993913</v>
+        <v>1.988127515195621</v>
       </c>
       <c r="H19" t="n">
-        <v>18.69931373165498</v>
+        <v>17.67626099873926</v>
       </c>
       <c r="I19" t="n">
-        <v>63.24880350134423</v>
+        <v>59.78841654788287</v>
       </c>
       <c r="J19" t="n">
-        <v>148.6958720767696</v>
+        <v>140.5606153243304</v>
       </c>
       <c r="K19" t="n">
-        <v>244.3529953891109</v>
+        <v>230.9842694927275</v>
       </c>
       <c r="L19" t="n">
-        <v>312.6877063062223</v>
+        <v>295.5803398500835</v>
       </c>
       <c r="M19" t="n">
-        <v>329.6853442483912</v>
+        <v>311.6480249501644</v>
       </c>
       <c r="N19" t="n">
-        <v>321.8461636451414</v>
+        <v>304.2377314844355</v>
       </c>
       <c r="O19" t="n">
-        <v>297.2770244373942</v>
+        <v>281.0127873296502</v>
       </c>
       <c r="P19" t="n">
-        <v>254.3718505991182</v>
+        <v>240.4549860196593</v>
       </c>
       <c r="Q19" t="n">
-        <v>176.1138842354539</v>
+        <v>166.4785685678806</v>
       </c>
       <c r="R19" t="n">
-        <v>94.56728600896263</v>
+        <v>89.3934426377958</v>
       </c>
       <c r="S19" t="n">
-        <v>36.65294930836663</v>
+        <v>34.64764042390912</v>
       </c>
       <c r="T19" t="n">
-        <v>8.986377764701261</v>
+        <v>8.494726655835832</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1147197161451226</v>
+        <v>0.1084433190106703</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.68871201665157</v>
+        <v>4.432189252697407</v>
       </c>
       <c r="H20" t="n">
-        <v>48.01827194053291</v>
+        <v>45.39115818418733</v>
       </c>
       <c r="I20" t="n">
-        <v>180.7615700219598</v>
+        <v>170.871976164617</v>
       </c>
       <c r="J20" t="n">
-        <v>397.9485715232815</v>
+        <v>376.1765225861269</v>
       </c>
       <c r="K20" t="n">
-        <v>596.4217511881426</v>
+        <v>563.7910936528083</v>
       </c>
       <c r="L20" t="n">
-        <v>739.9139215677433</v>
+        <v>699.4327054950468</v>
       </c>
       <c r="M20" t="n">
-        <v>823.2968038938706</v>
+        <v>778.2536511177042</v>
       </c>
       <c r="N20" t="n">
-        <v>836.6186069111819</v>
+        <v>790.8466088319308</v>
       </c>
       <c r="O20" t="n">
-        <v>789.9952267956029</v>
+        <v>746.7740269504209</v>
       </c>
       <c r="P20" t="n">
-        <v>674.2426488845171</v>
+        <v>637.3543547744536</v>
       </c>
       <c r="Q20" t="n">
-        <v>506.3281497881826</v>
+        <v>478.6265771622275</v>
       </c>
       <c r="R20" t="n">
-        <v>294.5273062159894</v>
+        <v>278.4135081447538</v>
       </c>
       <c r="S20" t="n">
-        <v>106.8440250794478</v>
+        <v>100.9985125958423</v>
       </c>
       <c r="T20" t="n">
-        <v>20.52483685289226</v>
+        <v>19.40190845368291</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3750969613321256</v>
+        <v>0.3545751402157925</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.508682094569755</v>
+        <v>2.371430315723902</v>
       </c>
       <c r="H21" t="n">
-        <v>24.22858759755527</v>
+        <v>22.90302436501769</v>
       </c>
       <c r="I21" t="n">
-        <v>86.37348439637096</v>
+        <v>81.6479297299677</v>
       </c>
       <c r="J21" t="n">
-        <v>237.0154429786276</v>
+        <v>224.0481597851254</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0971433148011</v>
+        <v>382.9339909386268</v>
       </c>
       <c r="L21" t="n">
-        <v>544.7031012792795</v>
+        <v>514.9020078066306</v>
       </c>
       <c r="M21" t="n">
-        <v>635.6428272074329</v>
+        <v>600.866356751622</v>
       </c>
       <c r="N21" t="n">
-        <v>652.4664014293504</v>
+        <v>616.7695012811917</v>
       </c>
       <c r="O21" t="n">
-        <v>596.8792876496732</v>
+        <v>564.2235979696252</v>
       </c>
       <c r="P21" t="n">
-        <v>393.7271420599679</v>
+        <v>452.8391802016986</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>258.4191651642973</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>46.59766960746888</v>
+        <v>44.04827801355579</v>
       </c>
       <c r="T21" t="n">
-        <v>10.11174931977896</v>
+        <v>9.558528333992392</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1650448746427471</v>
+        <v>0.1560151523502568</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.103194795993913</v>
+        <v>1.988127515195621</v>
       </c>
       <c r="H22" t="n">
-        <v>18.69931373165498</v>
+        <v>17.67626099873926</v>
       </c>
       <c r="I22" t="n">
-        <v>63.24880350134423</v>
+        <v>59.78841654788288</v>
       </c>
       <c r="J22" t="n">
-        <v>148.6958720767696</v>
+        <v>140.5606153243304</v>
       </c>
       <c r="K22" t="n">
-        <v>244.3529953891109</v>
+        <v>230.9842694927276</v>
       </c>
       <c r="L22" t="n">
-        <v>312.6877063062223</v>
+        <v>295.5803398500836</v>
       </c>
       <c r="M22" t="n">
-        <v>329.6853442483912</v>
+        <v>311.6480249501645</v>
       </c>
       <c r="N22" t="n">
-        <v>321.8461636451414</v>
+        <v>304.2377314844356</v>
       </c>
       <c r="O22" t="n">
-        <v>297.2770244373942</v>
+        <v>281.0127873296503</v>
       </c>
       <c r="P22" t="n">
-        <v>254.3718505991182</v>
+        <v>240.4549860196594</v>
       </c>
       <c r="Q22" t="n">
-        <v>176.1138842354539</v>
+        <v>166.4785685678806</v>
       </c>
       <c r="R22" t="n">
-        <v>94.56728600896263</v>
+        <v>89.39344263779581</v>
       </c>
       <c r="S22" t="n">
-        <v>36.65294930836663</v>
+        <v>34.64764042390913</v>
       </c>
       <c r="T22" t="n">
-        <v>8.986377764701261</v>
+        <v>8.494726655835834</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1147197161451226</v>
+        <v>0.1084433190106704</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,13 +32800,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33037,10 +33037,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O27" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,13 +33274,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>487.0792071670518</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33748,10 +33748,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>451.3961725873445</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33985,10 +33985,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>487.0792071670518</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34222,10 +34222,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>487.0792071670518</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34453,25 +34453,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745725</v>
+        <v>267.2047304709761</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34704,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M2" t="n">
-        <v>13.37571732916705</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N2" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P2" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.93890542723724</v>
+        <v>3.780617298235453</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.93890542723724</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="N3" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="O3" t="n">
-        <v>13.37571732916705</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.237935261039771</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="L4" t="n">
-        <v>13.93890542723724</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="M4" t="n">
-        <v>13.93890542723724</v>
+        <v>53.0283808723067</v>
       </c>
       <c r="N4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>13.37571732916705</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>55.26115480377223</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738662</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M5" t="n">
-        <v>49.79500702712468</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>55.26115480377223</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O5" t="n">
-        <v>42.49219790156762</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>46.79044561126693</v>
+        <v>29.52145245593457</v>
       </c>
       <c r="M6" t="n">
-        <v>55.26115480377223</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N6" t="n">
-        <v>32.46889172458208</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O6" t="n">
-        <v>55.26115480377223</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>107.5828556754319</v>
       </c>
       <c r="M7" t="n">
-        <v>55.26115480377223</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N7" t="n">
-        <v>53.0283808723067</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481403</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920428</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>61.81876122973794</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N9" t="n">
-        <v>85.35689629951858</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>107.5828556754318</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="M10" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="N10" t="n">
-        <v>112.1126601249237</v>
+        <v>140.9129444790638</v>
       </c>
       <c r="O10" t="n">
-        <v>112.1126601249237</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>216.9026669965953</v>
+        <v>195.1306180594406</v>
       </c>
       <c r="K11" t="n">
-        <v>376.331900143162</v>
+        <v>343.7012426078276</v>
       </c>
       <c r="L11" t="n">
-        <v>504.147506597756</v>
+        <v>463.6662905250593</v>
       </c>
       <c r="M11" t="n">
-        <v>592.9505706665979</v>
+        <v>547.9074178904314</v>
       </c>
       <c r="N11" t="n">
-        <v>607.2055433145911</v>
+        <v>561.4335452353398</v>
       </c>
       <c r="O11" t="n">
-        <v>559.8970153739161</v>
+        <v>516.675815528734</v>
       </c>
       <c r="P11" t="n">
-        <v>443.0096531292475</v>
+        <v>406.1213590191839</v>
       </c>
       <c r="Q11" t="n">
-        <v>284.0224599137331</v>
+        <v>256.3208872877779</v>
       </c>
       <c r="R11" t="n">
-        <v>78.9417684018573</v>
+        <v>62.82797033062161</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>110.1778163119609</v>
+        <v>97.21053311845864</v>
       </c>
       <c r="K12" t="n">
-        <v>267.2557043404422</v>
+        <v>245.0925519642678</v>
       </c>
       <c r="L12" t="n">
-        <v>406.1487214994053</v>
+        <v>376.3476280267565</v>
       </c>
       <c r="M12" t="n">
-        <v>493.5087932854146</v>
+        <v>458.7323228296036</v>
       </c>
       <c r="N12" t="n">
-        <v>521.1246893460171</v>
+        <v>485.4277891978583</v>
       </c>
       <c r="O12" t="n">
-        <v>454.2830432052288</v>
+        <v>421.6273535251806</v>
       </c>
       <c r="P12" t="n">
-        <v>259.7527346456376</v>
+        <v>318.8647727873682</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>118.4373910782758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>55.33669196009683</v>
+        <v>47.2014352076576</v>
       </c>
       <c r="K13" t="n">
-        <v>222.083503563228</v>
+        <v>208.7147776668447</v>
       </c>
       <c r="L13" t="n">
-        <v>340.2777315665385</v>
+        <v>323.1703651103996</v>
       </c>
       <c r="M13" t="n">
-        <v>369.2692212102318</v>
+        <v>351.231901912005</v>
       </c>
       <c r="N13" t="n">
-        <v>365.97833602437</v>
+        <v>348.3699038636641</v>
       </c>
       <c r="O13" t="n">
-        <v>321.8621523514339</v>
+        <v>305.5979152436899</v>
       </c>
       <c r="P13" t="n">
-        <v>251.6504098640117</v>
+        <v>237.7335452845528</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.95184098375954</v>
+        <v>80.3165253161862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>216.9026669965953</v>
+        <v>195.1306180594406</v>
       </c>
       <c r="K14" t="n">
-        <v>376.331900143162</v>
+        <v>343.7012426078276</v>
       </c>
       <c r="L14" t="n">
-        <v>504.147506597756</v>
+        <v>463.6662905250593</v>
       </c>
       <c r="M14" t="n">
-        <v>592.9505706665979</v>
+        <v>547.9074178904314</v>
       </c>
       <c r="N14" t="n">
-        <v>607.2055433145911</v>
+        <v>561.4335452353398</v>
       </c>
       <c r="O14" t="n">
-        <v>559.8970153739161</v>
+        <v>516.675815528734</v>
       </c>
       <c r="P14" t="n">
-        <v>443.0096531292475</v>
+        <v>406.1213590191839</v>
       </c>
       <c r="Q14" t="n">
-        <v>284.0224599137331</v>
+        <v>256.3208872877779</v>
       </c>
       <c r="R14" t="n">
-        <v>78.9417684018573</v>
+        <v>62.82797033062161</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>110.1778163119609</v>
+        <v>97.21053311845864</v>
       </c>
       <c r="K15" t="n">
-        <v>267.2557043404422</v>
+        <v>245.0925519642678</v>
       </c>
       <c r="L15" t="n">
-        <v>406.1487214994053</v>
+        <v>376.3476280267565</v>
       </c>
       <c r="M15" t="n">
-        <v>493.5087932854146</v>
+        <v>458.7323228296036</v>
       </c>
       <c r="N15" t="n">
-        <v>521.1246893460171</v>
+        <v>485.4277891978583</v>
       </c>
       <c r="O15" t="n">
-        <v>454.2830432052288</v>
+        <v>421.6273535251806</v>
       </c>
       <c r="P15" t="n">
-        <v>259.7527346456376</v>
+        <v>318.8647727873682</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>118.4373910782758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>55.33669196009683</v>
+        <v>47.2014352076576</v>
       </c>
       <c r="K16" t="n">
-        <v>222.083503563228</v>
+        <v>208.7147776668447</v>
       </c>
       <c r="L16" t="n">
-        <v>340.2777315665385</v>
+        <v>323.1703651103996</v>
       </c>
       <c r="M16" t="n">
-        <v>369.2692212102318</v>
+        <v>351.231901912005</v>
       </c>
       <c r="N16" t="n">
-        <v>365.97833602437</v>
+        <v>348.3699038636641</v>
       </c>
       <c r="O16" t="n">
-        <v>321.8621523514339</v>
+        <v>305.5979152436899</v>
       </c>
       <c r="P16" t="n">
-        <v>251.6504098640117</v>
+        <v>237.7335452845528</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.95184098375954</v>
+        <v>80.3165253161862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>216.9026669965953</v>
+        <v>195.1306180594406</v>
       </c>
       <c r="K17" t="n">
-        <v>376.331900143162</v>
+        <v>343.7012426078276</v>
       </c>
       <c r="L17" t="n">
-        <v>504.147506597756</v>
+        <v>463.6662905250593</v>
       </c>
       <c r="M17" t="n">
-        <v>592.9505706665979</v>
+        <v>547.9074178904314</v>
       </c>
       <c r="N17" t="n">
-        <v>607.2055433145911</v>
+        <v>561.4335452353398</v>
       </c>
       <c r="O17" t="n">
-        <v>559.8970153739161</v>
+        <v>516.675815528734</v>
       </c>
       <c r="P17" t="n">
-        <v>443.0096531292475</v>
+        <v>406.1213590191839</v>
       </c>
       <c r="Q17" t="n">
-        <v>284.0224599137331</v>
+        <v>256.3208872877779</v>
       </c>
       <c r="R17" t="n">
-        <v>78.9417684018573</v>
+        <v>62.82797033062161</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>110.1778163119609</v>
+        <v>97.21053311845864</v>
       </c>
       <c r="K18" t="n">
-        <v>267.2557043404422</v>
+        <v>245.0925519642678</v>
       </c>
       <c r="L18" t="n">
-        <v>406.1487214994053</v>
+        <v>376.3476280267565</v>
       </c>
       <c r="M18" t="n">
-        <v>493.5087932854146</v>
+        <v>458.7323228296036</v>
       </c>
       <c r="N18" t="n">
-        <v>521.1246893460171</v>
+        <v>485.4277891978583</v>
       </c>
       <c r="O18" t="n">
-        <v>454.2830432052288</v>
+        <v>421.6273535251806</v>
       </c>
       <c r="P18" t="n">
-        <v>259.7527346456376</v>
+        <v>318.8647727873682</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>116.8801952642243</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.55719581405171</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>55.33669196009683</v>
+        <v>47.2014352076576</v>
       </c>
       <c r="K19" t="n">
-        <v>222.083503563228</v>
+        <v>208.7147776668447</v>
       </c>
       <c r="L19" t="n">
-        <v>340.2777315665385</v>
+        <v>323.1703651103996</v>
       </c>
       <c r="M19" t="n">
-        <v>369.2692212102318</v>
+        <v>351.231901912005</v>
       </c>
       <c r="N19" t="n">
-        <v>365.97833602437</v>
+        <v>348.3699038636641</v>
       </c>
       <c r="O19" t="n">
-        <v>321.8621523514339</v>
+        <v>305.5979152436899</v>
       </c>
       <c r="P19" t="n">
-        <v>251.6504098640117</v>
+        <v>237.7335452845528</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.95184098375954</v>
+        <v>80.3165253161862</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>216.9026669965953</v>
+        <v>195.1306180594406</v>
       </c>
       <c r="K20" t="n">
-        <v>376.331900143162</v>
+        <v>343.7012426078277</v>
       </c>
       <c r="L20" t="n">
-        <v>504.147506597756</v>
+        <v>463.6662905250595</v>
       </c>
       <c r="M20" t="n">
-        <v>592.9505706665979</v>
+        <v>547.9074178904315</v>
       </c>
       <c r="N20" t="n">
-        <v>607.2055433145911</v>
+        <v>561.4335452353398</v>
       </c>
       <c r="O20" t="n">
-        <v>559.8970153739161</v>
+        <v>516.6758155287341</v>
       </c>
       <c r="P20" t="n">
-        <v>443.0096531292475</v>
+        <v>406.121359019184</v>
       </c>
       <c r="Q20" t="n">
-        <v>284.0224599137331</v>
+        <v>256.320887287778</v>
       </c>
       <c r="R20" t="n">
-        <v>78.9417684018573</v>
+        <v>62.82797033062167</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>110.1778163119609</v>
+        <v>97.2105331184587</v>
       </c>
       <c r="K21" t="n">
-        <v>267.2557043404422</v>
+        <v>245.0925519642678</v>
       </c>
       <c r="L21" t="n">
-        <v>406.1487214994053</v>
+        <v>376.3476280267565</v>
       </c>
       <c r="M21" t="n">
-        <v>493.5087932854146</v>
+        <v>458.7323228296037</v>
       </c>
       <c r="N21" t="n">
-        <v>521.1246893460171</v>
+        <v>485.4277891978584</v>
       </c>
       <c r="O21" t="n">
-        <v>454.2830432052288</v>
+        <v>421.6273535251808</v>
       </c>
       <c r="P21" t="n">
-        <v>259.7527346456376</v>
+        <v>318.8647727873683</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>118.4373910782758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>55.33669196009683</v>
+        <v>47.20143520765762</v>
       </c>
       <c r="K22" t="n">
-        <v>222.083503563228</v>
+        <v>208.7147776668447</v>
       </c>
       <c r="L22" t="n">
-        <v>340.2777315665385</v>
+        <v>323.1703651103998</v>
       </c>
       <c r="M22" t="n">
-        <v>369.2692212102318</v>
+        <v>351.2319019120051</v>
       </c>
       <c r="N22" t="n">
-        <v>365.97833602437</v>
+        <v>348.3699038636641</v>
       </c>
       <c r="O22" t="n">
-        <v>321.8621523514339</v>
+        <v>305.59791524369</v>
       </c>
       <c r="P22" t="n">
-        <v>251.6504098640117</v>
+        <v>237.7335452845529</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.95184098375954</v>
+        <v>80.31652531618623</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O27" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>320.0544605040112</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>355.7374950837184</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>355.7374950837184</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946983</v>
+        <v>128.6503506911019</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
